--- a/Potential Frequencies.xlsx
+++ b/Potential Frequencies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.GitHub\ECE-351-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD73A12A-8CD9-402D-8A31-62CA20DD6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07037CD5-811E-4A69-AE1E-C9BEBEE0A21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D875CA56-E2C7-454F-A3CB-E0EC34E825CF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D875CA56-E2C7-454F-A3CB-E0EC34E825CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +68,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,10 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,7 +1273,9 @@
       <c:valAx>
         <c:axId val="1618056864"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2255,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656D1760-4C35-4861-A140-6B1D7634F4D2}">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <f>(1/($G$7*$G$2*A2))</f>
+        <f t="shared" ref="B2:B33" si="0">(1/($G$7*$G$2*A2))</f>
         <v>19531.25</v>
       </c>
       <c r="C2" s="2">
@@ -2305,11 +2323,11 @@
         <v>20</v>
       </c>
       <c r="B3" s="2">
-        <f>(1/($G$7*$G$2*A3))</f>
+        <f t="shared" si="0"/>
         <v>9765.625</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C66" si="0">$G$12-B3</f>
+        <f t="shared" ref="C3:C66" si="1">$G$12-B3</f>
         <v>514522.375</v>
       </c>
     </row>
@@ -2318,11 +2336,11 @@
         <v>30</v>
       </c>
       <c r="B4" s="2">
-        <f>(1/($G$7*$G$2*A4))</f>
+        <f t="shared" si="0"/>
         <v>6510.416666666667</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>517777.58333333331</v>
       </c>
     </row>
@@ -2331,24 +2349,24 @@
         <v>40</v>
       </c>
       <c r="B5" s="2">
-        <f>(1/($G$7*$G$2*A5))</f>
+        <f t="shared" si="0"/>
         <v>4882.8125</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>519405.1875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>519405.1875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2">
-        <f>(1/($G$7*$G$2*A6))</f>
         <v>3906.25</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
         <v>520381.75</v>
       </c>
       <c r="G6" t="s">
@@ -2356,15 +2374,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>60</v>
       </c>
-      <c r="B7" s="2">
-        <f>(1/($G$7*$G$2*A7))</f>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
         <v>3255.2083333333335</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
         <v>521032.79166666669</v>
       </c>
       <c r="G7">
@@ -2376,11 +2394,11 @@
         <v>70</v>
       </c>
       <c r="B8" s="2">
-        <f>(1/($G$7*$G$2*A8))</f>
+        <f t="shared" si="0"/>
         <v>2790.1785714285716</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>521497.82142857142</v>
       </c>
     </row>
@@ -2389,11 +2407,11 @@
         <v>80</v>
       </c>
       <c r="B9" s="2">
-        <f>(1/($G$7*$G$2*A9))</f>
+        <f t="shared" si="0"/>
         <v>2441.40625</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>521846.59375</v>
       </c>
     </row>
@@ -2402,11 +2420,11 @@
         <v>90</v>
       </c>
       <c r="B10" s="2">
-        <f>(1/($G$7*$G$2*A10))</f>
+        <f t="shared" si="0"/>
         <v>2170.1388888888887</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>522117.86111111112</v>
       </c>
     </row>
@@ -2415,11 +2433,11 @@
         <v>100</v>
       </c>
       <c r="B11" s="2">
-        <f>(1/($G$7*$G$2*A11))</f>
+        <f t="shared" si="0"/>
         <v>1953.125</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>522334.875</v>
       </c>
       <c r="G11" t="s">
@@ -2431,7 +2449,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="2">
-        <f>(1/($G$7*$G$2*A12))</f>
+        <f t="shared" si="0"/>
         <v>1775.5681818181818</v>
       </c>
       <c r="C12" s="2">
@@ -2447,11 +2465,11 @@
         <v>120</v>
       </c>
       <c r="B13" s="2">
-        <f>(1/($G$7*$G$2*A13))</f>
+        <f t="shared" si="0"/>
         <v>1627.6041666666667</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>522660.39583333331</v>
       </c>
     </row>
@@ -2460,11 +2478,11 @@
         <v>130</v>
       </c>
       <c r="B14" s="2">
-        <f>(1/($G$7*$G$2*A14))</f>
+        <f t="shared" si="0"/>
         <v>1502.4038461538462</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>522785.59615384613</v>
       </c>
     </row>
@@ -2473,11 +2491,11 @@
         <v>140</v>
       </c>
       <c r="B15" s="2">
-        <f>(1/($G$7*$G$2*A15))</f>
+        <f t="shared" si="0"/>
         <v>1395.0892857142858</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>522892.91071428574</v>
       </c>
     </row>
@@ -2486,11 +2504,11 @@
         <v>150</v>
       </c>
       <c r="B16" s="2">
-        <f>(1/($G$7*$G$2*A16))</f>
+        <f t="shared" si="0"/>
         <v>1302.0833333333333</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>522985.91666666669</v>
       </c>
     </row>
@@ -2499,11 +2517,11 @@
         <v>160</v>
       </c>
       <c r="B17" s="2">
-        <f>(1/($G$7*$G$2*A17))</f>
+        <f t="shared" si="0"/>
         <v>1220.703125</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523067.296875</v>
       </c>
     </row>
@@ -2512,11 +2530,11 @@
         <v>170</v>
       </c>
       <c r="B18" s="2">
-        <f>(1/($G$7*$G$2*A18))</f>
+        <f t="shared" si="0"/>
         <v>1148.8970588235295</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523139.10294117645</v>
       </c>
     </row>
@@ -2525,11 +2543,11 @@
         <v>180</v>
       </c>
       <c r="B19" s="2">
-        <f>(1/($G$7*$G$2*A19))</f>
+        <f t="shared" si="0"/>
         <v>1085.0694444444443</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523202.93055555556</v>
       </c>
     </row>
@@ -2538,11 +2556,11 @@
         <v>190</v>
       </c>
       <c r="B20" s="2">
-        <f>(1/($G$7*$G$2*A20))</f>
+        <f t="shared" si="0"/>
         <v>1027.9605263157894</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523260.03947368421</v>
       </c>
     </row>
@@ -2551,11 +2569,11 @@
         <v>200</v>
       </c>
       <c r="B21" s="2">
-        <f>(1/($G$7*$G$2*A21))</f>
+        <f t="shared" si="0"/>
         <v>976.5625</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523311.4375</v>
       </c>
     </row>
@@ -2564,7 +2582,7 @@
         <v>210</v>
       </c>
       <c r="B22" s="2">
-        <f>(1/($G$7*$G$2*A22))</f>
+        <f t="shared" si="0"/>
         <v>930.05952380952374</v>
       </c>
       <c r="C22" s="2">
@@ -2577,11 +2595,11 @@
         <v>220</v>
       </c>
       <c r="B23" s="2">
-        <f>(1/($G$7*$G$2*A23))</f>
+        <f t="shared" si="0"/>
         <v>887.78409090909088</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523400.21590909088</v>
       </c>
     </row>
@@ -2590,11 +2608,11 @@
         <v>230</v>
       </c>
       <c r="B24" s="2">
-        <f>(1/($G$7*$G$2*A24))</f>
+        <f t="shared" si="0"/>
         <v>849.18478260869563</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523438.8152173913</v>
       </c>
     </row>
@@ -2603,11 +2621,11 @@
         <v>240</v>
       </c>
       <c r="B25" s="2">
-        <f>(1/($G$7*$G$2*A25))</f>
+        <f t="shared" si="0"/>
         <v>813.80208333333337</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523474.19791666669</v>
       </c>
     </row>
@@ -2616,11 +2634,11 @@
         <v>250</v>
       </c>
       <c r="B26" s="2">
-        <f>(1/($G$7*$G$2*A26))</f>
+        <f t="shared" si="0"/>
         <v>781.24999999999989</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523506.75</v>
       </c>
     </row>
@@ -2629,11 +2647,11 @@
         <v>260</v>
       </c>
       <c r="B27" s="2">
-        <f>(1/($G$7*$G$2*A27))</f>
+        <f t="shared" si="0"/>
         <v>751.20192307692309</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523536.79807692306</v>
       </c>
     </row>
@@ -2642,11 +2660,11 @@
         <v>270</v>
       </c>
       <c r="B28" s="2">
-        <f>(1/($G$7*$G$2*A28))</f>
+        <f t="shared" si="0"/>
         <v>723.37962962962968</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523564.62037037039</v>
       </c>
     </row>
@@ -2655,11 +2673,11 @@
         <v>280</v>
       </c>
       <c r="B29" s="2">
-        <f>(1/($G$7*$G$2*A29))</f>
+        <f t="shared" si="0"/>
         <v>697.54464285714289</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523590.45535714284</v>
       </c>
     </row>
@@ -2668,11 +2686,11 @@
         <v>290</v>
       </c>
       <c r="B30" s="2">
-        <f>(1/($G$7*$G$2*A30))</f>
+        <f t="shared" si="0"/>
         <v>673.49137931034477</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523614.50862068968</v>
       </c>
     </row>
@@ -2681,11 +2699,11 @@
         <v>300</v>
       </c>
       <c r="B31" s="2">
-        <f>(1/($G$7*$G$2*A31))</f>
+        <f t="shared" si="0"/>
         <v>651.04166666666663</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523636.95833333331</v>
       </c>
     </row>
@@ -2694,7 +2712,7 @@
         <v>310</v>
       </c>
       <c r="B32" s="2">
-        <f>(1/($G$7*$G$2*A32))</f>
+        <f t="shared" si="0"/>
         <v>630.04032258064512</v>
       </c>
       <c r="C32" s="2">
@@ -2707,11 +2725,11 @@
         <v>320</v>
       </c>
       <c r="B33" s="2">
-        <f>(1/($G$7*$G$2*A33))</f>
+        <f t="shared" si="0"/>
         <v>610.3515625</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523677.6484375</v>
       </c>
     </row>
@@ -2720,11 +2738,11 @@
         <v>330</v>
       </c>
       <c r="B34" s="2">
-        <f>(1/($G$7*$G$2*A34))</f>
+        <f t="shared" ref="B34:B65" si="2">(1/($G$7*$G$2*A34))</f>
         <v>591.85606060606062</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523696.14393939392</v>
       </c>
     </row>
@@ -2733,11 +2751,11 @@
         <v>340</v>
       </c>
       <c r="B35" s="2">
-        <f>(1/($G$7*$G$2*A35))</f>
+        <f t="shared" si="2"/>
         <v>574.44852941176475</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523713.55147058825</v>
       </c>
     </row>
@@ -2746,11 +2764,11 @@
         <v>350</v>
       </c>
       <c r="B36" s="2">
-        <f>(1/($G$7*$G$2*A36))</f>
+        <f t="shared" si="2"/>
         <v>558.03571428571433</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523729.96428571426</v>
       </c>
     </row>
@@ -2759,11 +2777,11 @@
         <v>360</v>
       </c>
       <c r="B37" s="2">
-        <f>(1/($G$7*$G$2*A37))</f>
+        <f t="shared" si="2"/>
         <v>542.53472222222217</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523745.46527777775</v>
       </c>
     </row>
@@ -2772,11 +2790,11 @@
         <v>370</v>
       </c>
       <c r="B38" s="2">
-        <f>(1/($G$7*$G$2*A38))</f>
+        <f t="shared" si="2"/>
         <v>527.87162162162156</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523760.1283783784</v>
       </c>
     </row>
@@ -2785,11 +2803,11 @@
         <v>380</v>
       </c>
       <c r="B39" s="2">
-        <f>(1/($G$7*$G$2*A39))</f>
+        <f t="shared" si="2"/>
         <v>513.98026315789468</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523774.01973684208</v>
       </c>
     </row>
@@ -2798,11 +2816,11 @@
         <v>390</v>
       </c>
       <c r="B40" s="2">
-        <f>(1/($G$7*$G$2*A40))</f>
+        <f t="shared" si="2"/>
         <v>500.80128205128204</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523787.19871794869</v>
       </c>
     </row>
@@ -2811,11 +2829,11 @@
         <v>400</v>
       </c>
       <c r="B41" s="2">
-        <f>(1/($G$7*$G$2*A41))</f>
+        <f t="shared" si="2"/>
         <v>488.28125</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523799.71875</v>
       </c>
     </row>
@@ -2824,7 +2842,7 @@
         <v>410</v>
       </c>
       <c r="B42" s="2">
-        <f>(1/($G$7*$G$2*A42))</f>
+        <f t="shared" si="2"/>
         <v>476.37195121951225</v>
       </c>
       <c r="C42" s="2">
@@ -2837,11 +2855,11 @@
         <v>420</v>
       </c>
       <c r="B43" s="2">
-        <f>(1/($G$7*$G$2*A43))</f>
+        <f t="shared" si="2"/>
         <v>465.02976190476187</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523822.97023809527</v>
       </c>
     </row>
@@ -2850,11 +2868,11 @@
         <v>430</v>
       </c>
       <c r="B44" s="2">
-        <f>(1/($G$7*$G$2*A44))</f>
+        <f t="shared" si="2"/>
         <v>454.21511627906972</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523833.78488372092</v>
       </c>
     </row>
@@ -2863,11 +2881,11 @@
         <v>440</v>
       </c>
       <c r="B45" s="2">
-        <f>(1/($G$7*$G$2*A45))</f>
+        <f t="shared" si="2"/>
         <v>443.89204545454544</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523844.10795454547</v>
       </c>
     </row>
@@ -2876,11 +2894,11 @@
         <v>450</v>
       </c>
       <c r="B46" s="2">
-        <f>(1/($G$7*$G$2*A46))</f>
+        <f t="shared" si="2"/>
         <v>434.02777777777777</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523853.97222222225</v>
       </c>
     </row>
@@ -2889,11 +2907,11 @@
         <v>460</v>
       </c>
       <c r="B47" s="2">
-        <f>(1/($G$7*$G$2*A47))</f>
+        <f t="shared" si="2"/>
         <v>424.59239130434781</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523863.40760869568</v>
       </c>
     </row>
@@ -2902,11 +2920,11 @@
         <v>470</v>
       </c>
       <c r="B48" s="2">
-        <f>(1/($G$7*$G$2*A48))</f>
+        <f t="shared" si="2"/>
         <v>415.55851063829789</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523872.44148936169</v>
       </c>
     </row>
@@ -2915,11 +2933,11 @@
         <v>480</v>
       </c>
       <c r="B49" s="2">
-        <f>(1/($G$7*$G$2*A49))</f>
+        <f t="shared" si="2"/>
         <v>406.90104166666669</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523881.09895833331</v>
       </c>
     </row>
@@ -2928,11 +2946,11 @@
         <v>490</v>
       </c>
       <c r="B50" s="2">
-        <f>(1/($G$7*$G$2*A50))</f>
+        <f t="shared" si="2"/>
         <v>398.59693877551018</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523889.4030612245</v>
       </c>
     </row>
@@ -2941,11 +2959,11 @@
         <v>500</v>
       </c>
       <c r="B51" s="2">
-        <f>(1/($G$7*$G$2*A51))</f>
+        <f t="shared" si="2"/>
         <v>390.62499999999994</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523897.375</v>
       </c>
     </row>
@@ -2954,7 +2972,7 @@
         <v>510</v>
       </c>
       <c r="B52" s="2">
-        <f>(1/($G$7*$G$2*A52))</f>
+        <f t="shared" si="2"/>
         <v>382.96568627450978</v>
       </c>
       <c r="C52" s="2">
@@ -2967,11 +2985,11 @@
         <v>520</v>
       </c>
       <c r="B53" s="2">
-        <f>(1/($G$7*$G$2*A53))</f>
+        <f t="shared" si="2"/>
         <v>375.60096153846155</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523912.39903846156</v>
       </c>
     </row>
@@ -2980,11 +2998,11 @@
         <v>530</v>
       </c>
       <c r="B54" s="2">
-        <f>(1/($G$7*$G$2*A54))</f>
+        <f t="shared" si="2"/>
         <v>368.5141509433962</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523919.48584905663</v>
       </c>
     </row>
@@ -2993,11 +3011,11 @@
         <v>540</v>
       </c>
       <c r="B55" s="2">
-        <f>(1/($G$7*$G$2*A55))</f>
+        <f t="shared" si="2"/>
         <v>361.68981481481484</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523926.31018518517</v>
       </c>
     </row>
@@ -3006,11 +3024,11 @@
         <v>550</v>
       </c>
       <c r="B56" s="2">
-        <f>(1/($G$7*$G$2*A56))</f>
+        <f t="shared" si="2"/>
         <v>355.11363636363637</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523932.88636363635</v>
       </c>
     </row>
@@ -3019,11 +3037,11 @@
         <v>560</v>
       </c>
       <c r="B57" s="2">
-        <f>(1/($G$7*$G$2*A57))</f>
+        <f t="shared" si="2"/>
         <v>348.77232142857144</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523939.22767857142</v>
       </c>
     </row>
@@ -3032,11 +3050,11 @@
         <v>570</v>
       </c>
       <c r="B58" s="2">
-        <f>(1/($G$7*$G$2*A58))</f>
+        <f t="shared" si="2"/>
         <v>342.65350877192981</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523945.34649122809</v>
       </c>
     </row>
@@ -3045,11 +3063,11 @@
         <v>580</v>
       </c>
       <c r="B59" s="2">
-        <f>(1/($G$7*$G$2*A59))</f>
+        <f t="shared" si="2"/>
         <v>336.74568965517238</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523951.25431034481</v>
       </c>
     </row>
@@ -3058,11 +3076,11 @@
         <v>590</v>
       </c>
       <c r="B60" s="2">
-        <f>(1/($G$7*$G$2*A60))</f>
+        <f t="shared" si="2"/>
         <v>331.03813559322032</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523956.96186440677</v>
       </c>
     </row>
@@ -3071,11 +3089,11 @@
         <v>600</v>
       </c>
       <c r="B61" s="2">
-        <f>(1/($G$7*$G$2*A61))</f>
+        <f t="shared" si="2"/>
         <v>325.52083333333331</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523962.47916666669</v>
       </c>
     </row>
@@ -3084,7 +3102,7 @@
         <v>610</v>
       </c>
       <c r="B62" s="2">
-        <f>(1/($G$7*$G$2*A62))</f>
+        <f t="shared" si="2"/>
         <v>320.18442622950818</v>
       </c>
       <c r="C62" s="2">
@@ -3097,11 +3115,11 @@
         <v>620</v>
       </c>
       <c r="B63" s="2">
-        <f>(1/($G$7*$G$2*A63))</f>
+        <f t="shared" si="2"/>
         <v>315.02016129032256</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523972.9798387097</v>
       </c>
     </row>
@@ -3110,11 +3128,11 @@
         <v>630</v>
       </c>
       <c r="B64" s="2">
-        <f>(1/($G$7*$G$2*A64))</f>
+        <f t="shared" si="2"/>
         <v>310.01984126984127</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523977.98015873018</v>
       </c>
     </row>
@@ -3123,11 +3141,11 @@
         <v>640</v>
       </c>
       <c r="B65" s="2">
-        <f>(1/($G$7*$G$2*A65))</f>
+        <f t="shared" si="2"/>
         <v>305.17578125</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523982.82421875</v>
       </c>
     </row>
@@ -3136,11 +3154,11 @@
         <v>650</v>
       </c>
       <c r="B66" s="2">
-        <f>(1/($G$7*$G$2*A66))</f>
+        <f t="shared" ref="B66:B81" si="3">(1/($G$7*$G$2*A66))</f>
         <v>300.48076923076923</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>523987.51923076925</v>
       </c>
     </row>
@@ -3149,11 +3167,11 @@
         <v>660</v>
       </c>
       <c r="B67" s="2">
-        <f>(1/($G$7*$G$2*A67))</f>
+        <f t="shared" si="3"/>
         <v>295.92803030303031</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C71" si="1">$G$12-B67</f>
+        <f t="shared" ref="C67:C71" si="4">$G$12-B67</f>
         <v>523992.07196969696</v>
       </c>
     </row>
@@ -3162,11 +3180,11 @@
         <v>670</v>
       </c>
       <c r="B68" s="2">
-        <f>(1/($G$7*$G$2*A68))</f>
+        <f t="shared" si="3"/>
         <v>291.51119402985074</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>523996.48880597018</v>
       </c>
     </row>
@@ -3175,11 +3193,11 @@
         <v>680</v>
       </c>
       <c r="B69" s="2">
-        <f>(1/($G$7*$G$2*A69))</f>
+        <f t="shared" si="3"/>
         <v>287.22426470588238</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>524000.7757352941</v>
       </c>
     </row>
@@ -3188,11 +3206,11 @@
         <v>690</v>
       </c>
       <c r="B70" s="2">
-        <f>(1/($G$7*$G$2*A70))</f>
+        <f t="shared" si="3"/>
         <v>283.06159420289856</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>524004.93840579712</v>
       </c>
     </row>
@@ -3201,11 +3219,11 @@
         <v>700</v>
       </c>
       <c r="B71" s="2">
-        <f>(1/($G$7*$G$2*A71))</f>
+        <f t="shared" si="3"/>
         <v>279.01785714285717</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>524008.98214285716</v>
       </c>
     </row>
@@ -3214,7 +3232,7 @@
         <v>710</v>
       </c>
       <c r="B72" s="2">
-        <f>(1/($G$7*$G$2*A72))</f>
+        <f t="shared" si="3"/>
         <v>275.08802816901408</v>
       </c>
       <c r="C72" s="2">
@@ -3227,11 +3245,11 @@
         <v>720</v>
       </c>
       <c r="B73" s="2">
-        <f>(1/($G$7*$G$2*A73))</f>
+        <f t="shared" si="3"/>
         <v>271.26736111111109</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" ref="C73:C136" si="2">$G$12-B73</f>
+        <f t="shared" ref="C73:C136" si="5">$G$12-B73</f>
         <v>524016.73263888888</v>
       </c>
     </row>
@@ -3240,11 +3258,11 @@
         <v>730</v>
       </c>
       <c r="B74" s="2">
-        <f>(1/($G$7*$G$2*A74))</f>
+        <f t="shared" si="3"/>
         <v>267.55136986301369</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524020.44863013696</v>
       </c>
     </row>
@@ -3253,11 +3271,11 @@
         <v>740</v>
       </c>
       <c r="B75" s="2">
-        <f>(1/($G$7*$G$2*A75))</f>
+        <f t="shared" si="3"/>
         <v>263.93581081081078</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524024.06418918917</v>
       </c>
     </row>
@@ -3266,11 +3284,11 @@
         <v>750</v>
       </c>
       <c r="B76" s="2">
-        <f>(1/($G$7*$G$2*A76))</f>
+        <f t="shared" si="3"/>
         <v>260.41666666666669</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524027.58333333331</v>
       </c>
     </row>
@@ -3279,11 +3297,11 @@
         <v>760</v>
       </c>
       <c r="B77" s="2">
-        <f>(1/($G$7*$G$2*A77))</f>
+        <f t="shared" si="3"/>
         <v>256.99013157894734</v>
       </c>
       <c r="C77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524031.00986842107</v>
       </c>
     </row>
@@ -3292,11 +3310,11 @@
         <v>770</v>
       </c>
       <c r="B78" s="2">
-        <f>(1/($G$7*$G$2*A78))</f>
+        <f t="shared" si="3"/>
         <v>253.65259740259737</v>
       </c>
       <c r="C78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524034.34740259743</v>
       </c>
     </row>
@@ -3305,11 +3323,11 @@
         <v>780</v>
       </c>
       <c r="B79" s="2">
-        <f>(1/($G$7*$G$2*A79))</f>
+        <f t="shared" si="3"/>
         <v>250.40064102564102</v>
       </c>
       <c r="C79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524037.59935897437</v>
       </c>
     </row>
@@ -3318,11 +3336,11 @@
         <v>790</v>
       </c>
       <c r="B80" s="2">
-        <f>(1/($G$7*$G$2*A80))</f>
+        <f t="shared" si="3"/>
         <v>247.23101265822783</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524040.76898734178</v>
       </c>
     </row>
@@ -3331,11 +3349,11 @@
         <v>800</v>
       </c>
       <c r="B81" s="2">
-        <f>(1/($G$7*$G$2*A81))</f>
+        <f t="shared" si="3"/>
         <v>244.140625</v>
       </c>
       <c r="C81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524043.859375</v>
       </c>
     </row>
@@ -3344,11 +3362,11 @@
         <v>810</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" ref="B82:B145" si="3">(1/($G$7*$G$2*A82))</f>
+        <f t="shared" ref="B82:B145" si="6">(1/($G$7*$G$2*A82))</f>
         <v>241.12654320987653</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524046.87345679011</v>
       </c>
     </row>
@@ -3357,11 +3375,11 @@
         <v>820</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>238.18597560975613</v>
       </c>
       <c r="C83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524049.81402439025</v>
       </c>
     </row>
@@ -3370,11 +3388,11 @@
         <v>830</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>235.31626506024097</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524052.68373493978</v>
       </c>
     </row>
@@ -3383,11 +3401,11 @@
         <v>840</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>232.51488095238093</v>
       </c>
       <c r="C85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524055.48511904763</v>
       </c>
     </row>
@@ -3396,11 +3414,11 @@
         <v>850</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>229.77941176470588</v>
       </c>
       <c r="C86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524058.2205882353</v>
       </c>
     </row>
@@ -3409,11 +3427,11 @@
         <v>860</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>227.10755813953486</v>
       </c>
       <c r="C87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524060.89244186046</v>
       </c>
     </row>
@@ -3422,11 +3440,11 @@
         <v>870</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>224.49712643678163</v>
       </c>
       <c r="C88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524063.50287356321</v>
       </c>
     </row>
@@ -3435,11 +3453,11 @@
         <v>880</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>221.94602272727272</v>
       </c>
       <c r="C89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524066.05397727271</v>
       </c>
     </row>
@@ -3448,11 +3466,11 @@
         <v>890</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>219.45224719101125</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524068.54775280901</v>
       </c>
     </row>
@@ -3461,11 +3479,11 @@
         <v>900</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>217.01388888888889</v>
       </c>
       <c r="C91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524070.98611111112</v>
       </c>
     </row>
@@ -3474,11 +3492,11 @@
         <v>910</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>214.62912087912085</v>
       </c>
       <c r="C92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524073.37087912089</v>
       </c>
     </row>
@@ -3487,11 +3505,11 @@
         <v>920</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>212.29619565217391</v>
       </c>
       <c r="C93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524075.70380434784</v>
       </c>
     </row>
@@ -3500,11 +3518,11 @@
         <v>930</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>210.01344086021504</v>
       </c>
       <c r="C94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524077.9865591398</v>
       </c>
     </row>
@@ -3513,11 +3531,11 @@
         <v>940</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>207.77925531914894</v>
       </c>
       <c r="C95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524080.22074468085</v>
       </c>
     </row>
@@ -3526,11 +3544,11 @@
         <v>950</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>205.59210526315789</v>
       </c>
       <c r="C96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524082.40789473685</v>
       </c>
     </row>
@@ -3539,11 +3557,11 @@
         <v>960</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>203.45052083333334</v>
       </c>
       <c r="C97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524084.54947916669</v>
       </c>
     </row>
@@ -3552,11 +3570,11 @@
         <v>970</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>201.35309278350516</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524086.64690721652</v>
       </c>
     </row>
@@ -3565,11 +3583,11 @@
         <v>980</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>199.29846938775509</v>
       </c>
       <c r="C99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524088.70153061225</v>
       </c>
     </row>
@@ -3578,11 +3596,11 @@
         <v>990</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>197.28535353535352</v>
       </c>
       <c r="C100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524090.71464646462</v>
       </c>
     </row>
@@ -3591,11 +3609,11 @@
         <v>1000</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>195.31249999999997</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524092.6875</v>
       </c>
     </row>
@@ -3604,11 +3622,11 @@
         <v>1010</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>193.37871287128712</v>
       </c>
       <c r="C102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524094.62128712871</v>
       </c>
     </row>
@@ -3617,11 +3635,11 @@
         <v>1020</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>191.48284313725489</v>
       </c>
       <c r="C103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524096.51715686277</v>
       </c>
     </row>
@@ -3630,11 +3648,11 @@
         <v>1030</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>189.623786407767</v>
       </c>
       <c r="C104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524098.37621359224</v>
       </c>
     </row>
@@ -3643,11 +3661,11 @@
         <v>1040</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>187.80048076923077</v>
       </c>
       <c r="C105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524100.19951923075</v>
       </c>
     </row>
@@ -3656,11 +3674,11 @@
         <v>1050</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>186.01190476190476</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524101.98809523811</v>
       </c>
     </row>
@@ -3669,11 +3687,11 @@
         <v>1060</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>184.2570754716981</v>
       </c>
       <c r="C107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524103.74292452831</v>
       </c>
     </row>
@@ -3682,11 +3700,11 @@
         <v>1070</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>182.53504672897193</v>
       </c>
       <c r="C108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524105.46495327103</v>
       </c>
     </row>
@@ -3695,11 +3713,11 @@
         <v>1080</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>180.84490740740742</v>
       </c>
       <c r="C109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524107.15509259258</v>
       </c>
     </row>
@@ -3708,11 +3726,11 @@
         <v>1090</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>179.18577981651376</v>
       </c>
       <c r="C110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524108.81422018347</v>
       </c>
     </row>
@@ -3721,11 +3739,11 @@
         <v>1100</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>177.55681818181819</v>
       </c>
       <c r="C111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524110.44318181818</v>
       </c>
     </row>
@@ -3734,11 +3752,11 @@
         <v>1110</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>175.9572072072072</v>
       </c>
       <c r="C112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524112.04279279278</v>
       </c>
     </row>
@@ -3747,11 +3765,11 @@
         <v>1120</v>
       </c>
       <c r="B113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>174.38616071428572</v>
       </c>
       <c r="C113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524113.61383928574</v>
       </c>
     </row>
@@ -3760,11 +3778,11 @@
         <v>1130</v>
       </c>
       <c r="B114" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>172.84292035398229</v>
       </c>
       <c r="C114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524115.15707964601</v>
       </c>
     </row>
@@ -3773,11 +3791,11 @@
         <v>1140</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>171.3267543859649</v>
       </c>
       <c r="C115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524116.67324561405</v>
       </c>
     </row>
@@ -3786,11 +3804,11 @@
         <v>1150</v>
       </c>
       <c r="B116" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>169.83695652173913</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524118.16304347827</v>
       </c>
     </row>
@@ -3799,11 +3817,11 @@
         <v>1160</v>
       </c>
       <c r="B117" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>168.37284482758619</v>
       </c>
       <c r="C117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524119.62715517241</v>
       </c>
     </row>
@@ -3812,11 +3830,11 @@
         <v>1170</v>
       </c>
       <c r="B118" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>166.93376068376068</v>
       </c>
       <c r="C118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524121.06623931625</v>
       </c>
     </row>
@@ -3825,11 +3843,11 @@
         <v>1180</v>
       </c>
       <c r="B119" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165.51906779661016</v>
       </c>
       <c r="C119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524122.48093220341</v>
       </c>
     </row>
@@ -3838,11 +3856,11 @@
         <v>1190</v>
       </c>
       <c r="B120" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>164.12815126050421</v>
       </c>
       <c r="C120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524123.87184873951</v>
       </c>
     </row>
@@ -3851,11 +3869,11 @@
         <v>1200</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>162.76041666666666</v>
       </c>
       <c r="C121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524125.23958333331</v>
       </c>
     </row>
@@ -3864,11 +3882,11 @@
         <v>1210</v>
       </c>
       <c r="B122" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>161.41528925619832</v>
       </c>
       <c r="C122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524126.5847107438</v>
       </c>
     </row>
@@ -3877,11 +3895,11 @@
         <v>1220</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>160.09221311475409</v>
       </c>
       <c r="C123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524127.90778688522</v>
       </c>
     </row>
@@ -3890,11 +3908,11 @@
         <v>1230</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>158.79065040650406</v>
       </c>
       <c r="C124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524129.2093495935</v>
       </c>
     </row>
@@ -3903,11 +3921,11 @@
         <v>1240</v>
       </c>
       <c r="B125" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>157.51008064516128</v>
       </c>
       <c r="C125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524130.48991935485</v>
       </c>
     </row>
@@ -3916,11 +3934,11 @@
         <v>1250</v>
       </c>
       <c r="B126" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>156.25</v>
       </c>
       <c r="C126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524131.75</v>
       </c>
     </row>
@@ -3929,11 +3947,11 @@
         <v>1260</v>
       </c>
       <c r="B127" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>155.00992063492063</v>
       </c>
       <c r="C127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524132.99007936509</v>
       </c>
     </row>
@@ -3942,11 +3960,11 @@
         <v>1270</v>
       </c>
       <c r="B128" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>153.78937007874015</v>
       </c>
       <c r="C128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524134.21062992123</v>
       </c>
     </row>
@@ -3955,11 +3973,11 @@
         <v>1280</v>
       </c>
       <c r="B129" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>152.587890625</v>
       </c>
       <c r="C129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524135.412109375</v>
       </c>
     </row>
@@ -3968,11 +3986,11 @@
         <v>1290</v>
       </c>
       <c r="B130" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>151.40503875968992</v>
       </c>
       <c r="C130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524136.59496124031</v>
       </c>
     </row>
@@ -3981,11 +3999,11 @@
         <v>1300</v>
       </c>
       <c r="B131" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>150.24038461538461</v>
       </c>
       <c r="C131" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524137.75961538462</v>
       </c>
     </row>
@@ -3994,11 +4012,11 @@
         <v>1310</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>149.09351145038167</v>
       </c>
       <c r="C132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524138.9064885496</v>
       </c>
     </row>
@@ -4007,11 +4025,11 @@
         <v>1320</v>
       </c>
       <c r="B133" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>147.96401515151516</v>
       </c>
       <c r="C133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524140.03598484851</v>
       </c>
     </row>
@@ -4020,11 +4038,11 @@
         <v>1330</v>
       </c>
       <c r="B134" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>146.8515037593985</v>
       </c>
       <c r="C134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524141.14849624061</v>
       </c>
     </row>
@@ -4033,11 +4051,11 @@
         <v>1340</v>
       </c>
       <c r="B135" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>145.75559701492537</v>
       </c>
       <c r="C135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524142.24440298509</v>
       </c>
     </row>
@@ -4046,11 +4064,11 @@
         <v>1350</v>
       </c>
       <c r="B136" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>144.67592592592592</v>
       </c>
       <c r="C136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>524143.3240740741</v>
       </c>
     </row>
@@ -4059,11 +4077,11 @@
         <v>1360</v>
       </c>
       <c r="B137" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>143.61213235294119</v>
       </c>
       <c r="C137" s="2">
-        <f t="shared" ref="C137:C200" si="4">$G$12-B137</f>
+        <f t="shared" ref="C137:C200" si="7">$G$12-B137</f>
         <v>524144.38786764705</v>
       </c>
     </row>
@@ -4072,11 +4090,11 @@
         <v>1370</v>
       </c>
       <c r="B138" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>142.56386861313868</v>
       </c>
       <c r="C138" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524145.43613138684</v>
       </c>
     </row>
@@ -4085,11 +4103,11 @@
         <v>1380</v>
       </c>
       <c r="B139" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>141.53079710144928</v>
       </c>
       <c r="C139" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524146.46920289856</v>
       </c>
     </row>
@@ -4098,11 +4116,11 @@
         <v>1390</v>
       </c>
       <c r="B140" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>140.51258992805754</v>
       </c>
       <c r="C140" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524147.48741007195</v>
       </c>
     </row>
@@ -4111,11 +4129,11 @@
         <v>1400</v>
       </c>
       <c r="B141" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>139.50892857142858</v>
       </c>
       <c r="C141" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524148.49107142858</v>
       </c>
     </row>
@@ -4124,11 +4142,11 @@
         <v>1410</v>
       </c>
       <c r="B142" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>138.51950354609929</v>
       </c>
       <c r="C142" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524149.48049645388</v>
       </c>
     </row>
@@ -4137,11 +4155,11 @@
         <v>1420</v>
       </c>
       <c r="B143" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>137.54401408450704</v>
       </c>
       <c r="C143" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524150.4559859155</v>
       </c>
     </row>
@@ -4150,11 +4168,11 @@
         <v>1430</v>
       </c>
       <c r="B144" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>136.58216783216784</v>
       </c>
       <c r="C144" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524151.41783216782</v>
       </c>
     </row>
@@ -4163,11 +4181,11 @@
         <v>1440</v>
       </c>
       <c r="B145" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>135.63368055555554</v>
       </c>
       <c r="C145" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524152.36631944444</v>
       </c>
     </row>
@@ -4176,11 +4194,11 @@
         <v>1450</v>
       </c>
       <c r="B146" s="2">
-        <f t="shared" ref="B146:B209" si="5">(1/($G$7*$G$2*A146))</f>
+        <f t="shared" ref="B146:B209" si="8">(1/($G$7*$G$2*A146))</f>
         <v>134.69827586206895</v>
       </c>
       <c r="C146" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524153.30172413791</v>
       </c>
     </row>
@@ -4189,11 +4207,11 @@
         <v>1460</v>
       </c>
       <c r="B147" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>133.77568493150685</v>
       </c>
       <c r="C147" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524154.22431506851</v>
       </c>
     </row>
@@ -4202,11 +4220,11 @@
         <v>1470</v>
       </c>
       <c r="B148" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>132.8656462585034</v>
       </c>
       <c r="C148" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524155.13435374148</v>
       </c>
     </row>
@@ -4215,11 +4233,11 @@
         <v>1480</v>
       </c>
       <c r="B149" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>131.96790540540539</v>
       </c>
       <c r="C149" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524156.03209459462</v>
       </c>
     </row>
@@ -4228,11 +4246,11 @@
         <v>1490</v>
       </c>
       <c r="B150" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>131.08221476510067</v>
       </c>
       <c r="C150" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524156.91778523492</v>
       </c>
     </row>
@@ -4241,11 +4259,11 @@
         <v>1500</v>
       </c>
       <c r="B151" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130.20833333333334</v>
       </c>
       <c r="C151" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524157.79166666669</v>
       </c>
     </row>
@@ -4254,11 +4272,11 @@
         <v>1510</v>
       </c>
       <c r="B152" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>129.34602649006621</v>
       </c>
       <c r="C152" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524158.65397350991</v>
       </c>
     </row>
@@ -4267,11 +4285,11 @@
         <v>1520</v>
       </c>
       <c r="B153" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>128.49506578947367</v>
       </c>
       <c r="C153" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524159.5049342105</v>
       </c>
     </row>
@@ -4280,11 +4298,11 @@
         <v>1530</v>
       </c>
       <c r="B154" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>127.65522875816994</v>
       </c>
       <c r="C154" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524160.34477124183</v>
       </c>
     </row>
@@ -4293,11 +4311,11 @@
         <v>1540</v>
       </c>
       <c r="B155" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>126.82629870129868</v>
       </c>
       <c r="C155" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524161.17370129871</v>
       </c>
     </row>
@@ -4306,11 +4324,11 @@
         <v>1550</v>
       </c>
       <c r="B156" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>126.00806451612902</v>
       </c>
       <c r="C156" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524161.99193548388</v>
       </c>
     </row>
@@ -4319,11 +4337,11 @@
         <v>1560</v>
       </c>
       <c r="B157" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>125.20032051282051</v>
       </c>
       <c r="C157" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524162.79967948719</v>
       </c>
     </row>
@@ -4332,11 +4350,11 @@
         <v>1570</v>
       </c>
       <c r="B158" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>124.40286624203823</v>
       </c>
       <c r="C158" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524163.59713375795</v>
       </c>
     </row>
@@ -4345,11 +4363,11 @@
         <v>1580</v>
       </c>
       <c r="B159" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>123.61550632911391</v>
       </c>
       <c r="C159" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524164.38449367089</v>
       </c>
     </row>
@@ -4358,11 +4376,11 @@
         <v>1590</v>
       </c>
       <c r="B160" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>122.83805031446541</v>
       </c>
       <c r="C160" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524165.16194968554</v>
       </c>
     </row>
@@ -4371,11 +4389,11 @@
         <v>1600</v>
       </c>
       <c r="B161" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>122.0703125</v>
       </c>
       <c r="C161" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524165.9296875</v>
       </c>
     </row>
@@ -4384,11 +4402,11 @@
         <v>1610</v>
       </c>
       <c r="B162" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>121.31211180124222</v>
       </c>
       <c r="C162" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524166.68788819876</v>
       </c>
     </row>
@@ -4397,11 +4415,11 @@
         <v>1620</v>
       </c>
       <c r="B163" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>120.56327160493827</v>
       </c>
       <c r="C163" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524167.43672839506</v>
       </c>
     </row>
@@ -4410,11 +4428,11 @@
         <v>1630</v>
       </c>
       <c r="B164" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>119.82361963190185</v>
       </c>
       <c r="C164" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524168.17638036812</v>
       </c>
     </row>
@@ -4423,11 +4441,11 @@
         <v>1640</v>
       </c>
       <c r="B165" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>119.09298780487806</v>
       </c>
       <c r="C165" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524168.90701219509</v>
       </c>
     </row>
@@ -4436,11 +4454,11 @@
         <v>1650</v>
       </c>
       <c r="B166" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>118.37121212121211</v>
       </c>
       <c r="C166" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524169.62878787878</v>
       </c>
     </row>
@@ -4449,11 +4467,11 @@
         <v>1660</v>
       </c>
       <c r="B167" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>117.65813253012048</v>
       </c>
       <c r="C167" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524170.34186746989</v>
       </c>
     </row>
@@ -4462,11 +4480,11 @@
         <v>1670</v>
       </c>
       <c r="B168" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>116.95359281437126</v>
       </c>
       <c r="C168" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524171.04640718561</v>
       </c>
     </row>
@@ -4475,11 +4493,11 @@
         <v>1680</v>
       </c>
       <c r="B169" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>116.25744047619047</v>
       </c>
       <c r="C169" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524171.74255952379</v>
       </c>
     </row>
@@ -4488,11 +4506,11 @@
         <v>1690</v>
       </c>
       <c r="B170" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>115.56952662721893</v>
       </c>
       <c r="C170" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524172.43047337281</v>
       </c>
     </row>
@@ -4501,11 +4519,11 @@
         <v>1700</v>
       </c>
       <c r="B171" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>114.88970588235294</v>
       </c>
       <c r="C171" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524173.11029411765</v>
       </c>
     </row>
@@ -4514,11 +4532,11 @@
         <v>1710</v>
       </c>
       <c r="B172" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>114.21783625730995</v>
       </c>
       <c r="C172" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524173.7821637427</v>
       </c>
     </row>
@@ -4527,11 +4545,11 @@
         <v>1720</v>
       </c>
       <c r="B173" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>113.55377906976743</v>
       </c>
       <c r="C173" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524174.44622093026</v>
       </c>
     </row>
@@ -4540,11 +4558,11 @@
         <v>1730</v>
       </c>
       <c r="B174" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>112.89739884393063</v>
       </c>
       <c r="C174" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524175.10260115605</v>
       </c>
     </row>
@@ -4553,11 +4571,11 @@
         <v>1740</v>
       </c>
       <c r="B175" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>112.24856321839081</v>
       </c>
       <c r="C175" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524175.7514367816</v>
       </c>
     </row>
@@ -4566,11 +4584,11 @@
         <v>1750</v>
       </c>
       <c r="B176" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>111.60714285714285</v>
       </c>
       <c r="C176" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524176.39285714284</v>
       </c>
     </row>
@@ -4579,11 +4597,11 @@
         <v>1760</v>
       </c>
       <c r="B177" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>110.97301136363636</v>
       </c>
       <c r="C177" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524177.02698863635</v>
       </c>
     </row>
@@ -4592,11 +4610,11 @@
         <v>1770</v>
       </c>
       <c r="B178" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>110.34604519774011</v>
       </c>
       <c r="C178" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524177.65395480226</v>
       </c>
     </row>
@@ -4605,11 +4623,11 @@
         <v>1780</v>
       </c>
       <c r="B179" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>109.72612359550563</v>
       </c>
       <c r="C179" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524178.27387640451</v>
       </c>
     </row>
@@ -4618,11 +4636,11 @@
         <v>1790</v>
       </c>
       <c r="B180" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>109.1131284916201</v>
       </c>
       <c r="C180" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524178.88687150838</v>
       </c>
     </row>
@@ -4631,11 +4649,11 @@
         <v>1800</v>
       </c>
       <c r="B181" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>108.50694444444444</v>
       </c>
       <c r="C181" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524179.49305555556</v>
       </c>
     </row>
@@ -4644,11 +4662,11 @@
         <v>1810</v>
       </c>
       <c r="B182" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>107.90745856353591</v>
       </c>
       <c r="C182" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524180.09254143649</v>
       </c>
     </row>
@@ -4657,11 +4675,11 @@
         <v>1820</v>
       </c>
       <c r="B183" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>107.31456043956042</v>
       </c>
       <c r="C183" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524180.68543956045</v>
       </c>
     </row>
@@ -4670,11 +4688,11 @@
         <v>1830</v>
       </c>
       <c r="B184" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>106.72814207650272</v>
       </c>
       <c r="C184" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524181.27185792348</v>
       </c>
     </row>
@@ -4683,11 +4701,11 @@
         <v>1840</v>
       </c>
       <c r="B185" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>106.14809782608695</v>
       </c>
       <c r="C185" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524181.85190217389</v>
       </c>
     </row>
@@ -4696,11 +4714,11 @@
         <v>1850</v>
       </c>
       <c r="B186" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>105.57432432432432</v>
       </c>
       <c r="C186" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524182.42567567568</v>
       </c>
     </row>
@@ -4709,11 +4727,11 @@
         <v>1860</v>
       </c>
       <c r="B187" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>105.00672043010752</v>
       </c>
       <c r="C187" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524182.9932795699</v>
       </c>
     </row>
@@ -4722,11 +4740,11 @@
         <v>1870</v>
       </c>
       <c r="B188" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>104.44518716577539</v>
       </c>
       <c r="C188" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524183.55481283425</v>
       </c>
     </row>
@@ -4735,11 +4753,11 @@
         <v>1880</v>
       </c>
       <c r="B189" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>103.88962765957447</v>
       </c>
       <c r="C189" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524184.11037234042</v>
       </c>
     </row>
@@ -4748,11 +4766,11 @@
         <v>1890</v>
       </c>
       <c r="B190" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>103.33994708994707</v>
       </c>
       <c r="C190" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524184.66005291004</v>
       </c>
     </row>
@@ -4761,11 +4779,11 @@
         <v>1900</v>
       </c>
       <c r="B191" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>102.79605263157895</v>
       </c>
       <c r="C191" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524185.20394736843</v>
       </c>
     </row>
@@ -4774,11 +4792,11 @@
         <v>1910</v>
       </c>
       <c r="B192" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>102.25785340314135</v>
       </c>
       <c r="C192" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524185.74214659684</v>
       </c>
     </row>
@@ -4787,11 +4805,11 @@
         <v>1920</v>
       </c>
       <c r="B193" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>101.72526041666667</v>
       </c>
       <c r="C193" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524186.27473958331</v>
       </c>
     </row>
@@ -4800,11 +4818,11 @@
         <v>1930</v>
       </c>
       <c r="B194" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>101.1981865284974</v>
       </c>
       <c r="C194" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524186.80181347148</v>
       </c>
     </row>
@@ -4813,11 +4831,11 @@
         <v>1940</v>
       </c>
       <c r="B195" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>100.67654639175258</v>
       </c>
       <c r="C195" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524187.32345360826</v>
       </c>
     </row>
@@ -4826,11 +4844,11 @@
         <v>1950</v>
       </c>
       <c r="B196" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>100.16025641025641</v>
       </c>
       <c r="C196" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524187.83974358975</v>
       </c>
     </row>
@@ -4839,11 +4857,11 @@
         <v>1960</v>
       </c>
       <c r="B197" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>99.649234693877546</v>
       </c>
       <c r="C197" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524188.3507653061</v>
       </c>
     </row>
@@ -4852,11 +4870,11 @@
         <v>1970</v>
       </c>
       <c r="B198" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>99.14340101522842</v>
       </c>
       <c r="C198" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524188.8565989848</v>
       </c>
     </row>
@@ -4865,11 +4883,11 @@
         <v>1980</v>
       </c>
       <c r="B199" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>98.642676767676761</v>
       </c>
       <c r="C199" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524189.35732323234</v>
       </c>
     </row>
@@ -4878,11 +4896,11 @@
         <v>1990</v>
       </c>
       <c r="B200" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>98.146984924623126</v>
       </c>
       <c r="C200" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>524189.85301507538</v>
       </c>
     </row>
@@ -4891,11 +4909,11 @@
         <v>2000</v>
       </c>
       <c r="B201" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>97.656249999999986</v>
       </c>
       <c r="C201" s="2">
-        <f t="shared" ref="C201:C251" si="6">$G$12-B201</f>
+        <f t="shared" ref="C201:C251" si="9">$G$12-B201</f>
         <v>524190.34375</v>
       </c>
     </row>
@@ -4904,11 +4922,11 @@
         <v>2010</v>
       </c>
       <c r="B202" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>97.170398009950247</v>
       </c>
       <c r="C202" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524190.82960199006</v>
       </c>
     </row>
@@ -4917,11 +4935,11 @@
         <v>2020</v>
       </c>
       <c r="B203" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>96.68935643564356</v>
       </c>
       <c r="C203" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524191.31064356433</v>
       </c>
     </row>
@@ -4930,11 +4948,11 @@
         <v>2030</v>
       </c>
       <c r="B204" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>96.213054187192128</v>
       </c>
       <c r="C204" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524191.78694581281</v>
       </c>
     </row>
@@ -4943,11 +4961,11 @@
         <v>2040</v>
       </c>
       <c r="B205" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>95.741421568627445</v>
       </c>
       <c r="C205" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524192.25857843139</v>
       </c>
     </row>
@@ -4956,11 +4974,11 @@
         <v>2050</v>
       </c>
       <c r="B206" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>95.274390243902431</v>
       </c>
       <c r="C206" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524192.72560975607</v>
       </c>
     </row>
@@ -4969,11 +4987,11 @@
         <v>2060</v>
       </c>
       <c r="B207" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>94.8118932038835</v>
       </c>
       <c r="C207" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524193.18810679612</v>
       </c>
     </row>
@@ -4982,11 +5000,11 @@
         <v>2070</v>
       </c>
       <c r="B208" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>94.353864734299506</v>
       </c>
       <c r="C208" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524193.64613526571</v>
       </c>
     </row>
@@ -4995,11 +5013,11 @@
         <v>2080</v>
       </c>
       <c r="B209" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>93.900240384615387</v>
       </c>
       <c r="C209" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524194.09975961538</v>
       </c>
     </row>
@@ -5008,11 +5026,11 @@
         <v>2090</v>
       </c>
       <c r="B210" s="2">
-        <f t="shared" ref="B210:B251" si="7">(1/($G$7*$G$2*A210))</f>
+        <f t="shared" ref="B210:B251" si="10">(1/($G$7*$G$2*A210))</f>
         <v>93.450956937799049</v>
       </c>
       <c r="C210" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524194.5490430622</v>
       </c>
     </row>
@@ -5021,11 +5039,11 @@
         <v>2100</v>
       </c>
       <c r="B211" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>93.00595238095238</v>
       </c>
       <c r="C211" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524194.99404761905</v>
       </c>
     </row>
@@ -5034,11 +5052,11 @@
         <v>2110</v>
       </c>
       <c r="B212" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92.565165876777243</v>
       </c>
       <c r="C212" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524195.43483412324</v>
       </c>
     </row>
@@ -5047,11 +5065,11 @@
         <v>2120</v>
       </c>
       <c r="B213" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92.128537735849051</v>
       </c>
       <c r="C213" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524195.87146226416</v>
       </c>
     </row>
@@ -5060,11 +5078,11 @@
         <v>2130</v>
       </c>
       <c r="B214" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>91.69600938967136</v>
       </c>
       <c r="C214" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524196.30399061035</v>
       </c>
     </row>
@@ -5073,11 +5091,11 @@
         <v>2140</v>
       </c>
       <c r="B215" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>91.267523364485967</v>
       </c>
       <c r="C215" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524196.73247663549</v>
       </c>
     </row>
@@ -5086,11 +5104,11 @@
         <v>2150</v>
       </c>
       <c r="B216" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90.843023255813947</v>
       </c>
       <c r="C216" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524197.15697674418</v>
       </c>
     </row>
@@ -5099,11 +5117,11 @@
         <v>2160</v>
       </c>
       <c r="B217" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90.422453703703709</v>
       </c>
       <c r="C217" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524197.57754629629</v>
       </c>
     </row>
@@ -5112,11 +5130,11 @@
         <v>2170</v>
       </c>
       <c r="B218" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90.005760368663601</v>
       </c>
       <c r="C218" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524197.99423963134</v>
       </c>
     </row>
@@ -5125,11 +5143,11 @@
         <v>2180</v>
       </c>
       <c r="B219" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>89.592889908256879</v>
       </c>
       <c r="C219" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524198.40711009176</v>
       </c>
     </row>
@@ -5138,11 +5156,11 @@
         <v>2190</v>
       </c>
       <c r="B220" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>89.183789954337897</v>
       </c>
       <c r="C220" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524198.81621004565</v>
       </c>
     </row>
@@ -5151,11 +5169,11 @@
         <v>2200</v>
       </c>
       <c r="B221" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>88.778409090909093</v>
       </c>
       <c r="C221" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524199.22159090912</v>
       </c>
     </row>
@@ -5164,11 +5182,11 @@
         <v>2210</v>
       </c>
       <c r="B222" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>88.376696832579185</v>
       </c>
       <c r="C222" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524199.62330316741</v>
       </c>
     </row>
@@ -5177,11 +5195,11 @@
         <v>2220</v>
       </c>
       <c r="B223" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87.978603603603602</v>
       </c>
       <c r="C223" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524200.02139639639</v>
       </c>
     </row>
@@ -5190,11 +5208,11 @@
         <v>2230</v>
       </c>
       <c r="B224" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87.584080717488789</v>
       </c>
       <c r="C224" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524200.41591928253</v>
       </c>
     </row>
@@ -5203,11 +5221,11 @@
         <v>2240</v>
       </c>
       <c r="B225" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87.193080357142861</v>
       </c>
       <c r="C225" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524200.80691964284</v>
       </c>
     </row>
@@ -5216,11 +5234,11 @@
         <v>2250</v>
       </c>
       <c r="B226" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>86.805555555555557</v>
       </c>
       <c r="C226" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524201.19444444444</v>
       </c>
     </row>
@@ -5229,11 +5247,11 @@
         <v>2260</v>
       </c>
       <c r="B227" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>86.421460176991147</v>
       </c>
       <c r="C227" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524201.57853982301</v>
       </c>
     </row>
@@ -5242,11 +5260,11 @@
         <v>2270</v>
       </c>
       <c r="B228" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>86.040748898678416</v>
       </c>
       <c r="C228" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524201.9592511013</v>
       </c>
     </row>
@@ -5255,11 +5273,11 @@
         <v>2280</v>
       </c>
       <c r="B229" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>85.663377192982452</v>
       </c>
       <c r="C229" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524202.33662280702</v>
       </c>
     </row>
@@ -5268,11 +5286,11 @@
         <v>2290</v>
       </c>
       <c r="B230" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>85.289301310043669</v>
       </c>
       <c r="C230" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524202.71069868997</v>
       </c>
     </row>
@@ -5281,11 +5299,11 @@
         <v>2300</v>
       </c>
       <c r="B231" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>84.918478260869563</v>
       </c>
       <c r="C231" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524203.08152173914</v>
       </c>
     </row>
@@ -5294,11 +5312,11 @@
         <v>2310</v>
       </c>
       <c r="B232" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>84.550865800865807</v>
       </c>
       <c r="C232" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524203.44913419912</v>
       </c>
     </row>
@@ -5307,11 +5325,11 @@
         <v>2320</v>
       </c>
       <c r="B233" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>84.186422413793096</v>
       </c>
       <c r="C233" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524203.8135775862</v>
       </c>
     </row>
@@ -5320,11 +5338,11 @@
         <v>2330</v>
       </c>
       <c r="B234" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83.825107296137332</v>
       </c>
       <c r="C234" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524204.17489270389</v>
       </c>
     </row>
@@ -5333,11 +5351,11 @@
         <v>2340</v>
       </c>
       <c r="B235" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83.466880341880341</v>
       </c>
       <c r="C235" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524204.53311965812</v>
       </c>
     </row>
@@ -5346,11 +5364,11 @@
         <v>2350</v>
       </c>
       <c r="B236" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83.111702127659569</v>
       </c>
       <c r="C236" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524204.88829787233</v>
       </c>
     </row>
@@ -5359,11 +5377,11 @@
         <v>2360</v>
       </c>
       <c r="B237" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>82.759533898305079</v>
       </c>
       <c r="C237" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524205.24046610168</v>
       </c>
     </row>
@@ -5372,11 +5390,11 @@
         <v>2370</v>
       </c>
       <c r="B238" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>82.410337552742618</v>
       </c>
       <c r="C238" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524205.58966244728</v>
       </c>
     </row>
@@ -5385,11 +5403,11 @@
         <v>2380</v>
       </c>
       <c r="B239" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>82.064075630252105</v>
       </c>
       <c r="C239" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524205.93592436973</v>
       </c>
     </row>
@@ -5398,11 +5416,11 @@
         <v>2390</v>
       </c>
       <c r="B240" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81.720711297071119</v>
       </c>
       <c r="C240" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524206.27928870294</v>
       </c>
     </row>
@@ -5411,11 +5429,11 @@
         <v>2400</v>
       </c>
       <c r="B241" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81.380208333333329</v>
       </c>
       <c r="C241" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524206.61979166669</v>
       </c>
     </row>
@@ -5424,11 +5442,11 @@
         <v>2410</v>
       </c>
       <c r="B242" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81.042531120331958</v>
       </c>
       <c r="C242" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524206.95746887964</v>
       </c>
     </row>
@@ -5437,11 +5455,11 @@
         <v>2420</v>
       </c>
       <c r="B243" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80.70764462809916</v>
       </c>
       <c r="C243" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524207.29235537187</v>
       </c>
     </row>
@@ -5450,11 +5468,11 @@
         <v>2430</v>
       </c>
       <c r="B244" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80.375514403292172</v>
       </c>
       <c r="C244" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524207.62448559672</v>
       </c>
     </row>
@@ -5463,11 +5481,11 @@
         <v>2440</v>
       </c>
       <c r="B245" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80.046106557377044</v>
       </c>
       <c r="C245" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524207.95389344264</v>
       </c>
     </row>
@@ -5476,11 +5494,11 @@
         <v>2450</v>
       </c>
       <c r="B246" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>79.719387755102048</v>
       </c>
       <c r="C246" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524208.28061224491</v>
       </c>
     </row>
@@ -5489,11 +5507,11 @@
         <v>2460</v>
       </c>
       <c r="B247" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>79.395325203252028</v>
       </c>
       <c r="C247" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524208.60467479675</v>
       </c>
     </row>
@@ -5502,11 +5520,11 @@
         <v>2470</v>
       </c>
       <c r="B248" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>79.073886639676118</v>
       </c>
       <c r="C248" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524208.92611336033</v>
       </c>
     </row>
@@ -5515,11 +5533,11 @@
         <v>2480</v>
       </c>
       <c r="B249" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>78.755040322580641</v>
       </c>
       <c r="C249" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524209.24495967739</v>
       </c>
     </row>
@@ -5528,11 +5546,11 @@
         <v>2490</v>
       </c>
       <c r="B250" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>78.438755020080308</v>
       </c>
       <c r="C250" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524209.56124497991</v>
       </c>
     </row>
@@ -5541,16 +5559,3475 @@
         <v>2500</v>
       </c>
       <c r="B251" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>78.125</v>
       </c>
       <c r="C251" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>524209.875</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2510</v>
+      </c>
+      <c r="B252" s="2">
+        <f t="shared" ref="B252:B275" si="11">(1/($G$7*$G$2*A252))</f>
+        <v>77.813745019920319</v>
+      </c>
+      <c r="C252" s="2">
+        <f t="shared" ref="C252:C275" si="12">$G$12-B252</f>
+        <v>524210.1862549801</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2520</v>
+      </c>
+      <c r="B253" s="2">
+        <f t="shared" si="11"/>
+        <v>77.504960317460316</v>
+      </c>
+      <c r="C253" s="2">
+        <f t="shared" si="12"/>
+        <v>524210.49503968254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2530</v>
+      </c>
+      <c r="B254" s="2">
+        <f t="shared" si="11"/>
+        <v>77.198616600790515</v>
+      </c>
+      <c r="C254" s="2">
+        <f t="shared" si="12"/>
+        <v>524210.80138339923</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2540</v>
+      </c>
+      <c r="B255" s="2">
+        <f t="shared" si="11"/>
+        <v>76.894685039370074</v>
+      </c>
+      <c r="C255" s="2">
+        <f t="shared" si="12"/>
+        <v>524211.10531496065</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2550</v>
+      </c>
+      <c r="B256" s="2">
+        <f t="shared" si="11"/>
+        <v>76.593137254901961</v>
+      </c>
+      <c r="C256" s="2">
+        <f t="shared" si="12"/>
+        <v>524211.40686274512</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2560</v>
+      </c>
+      <c r="B257" s="2">
+        <f t="shared" si="11"/>
+        <v>76.2939453125</v>
+      </c>
+      <c r="C257" s="2">
+        <f t="shared" si="12"/>
+        <v>524211.7060546875</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2570</v>
+      </c>
+      <c r="B258" s="2">
+        <f t="shared" si="11"/>
+        <v>75.997081712062254</v>
+      </c>
+      <c r="C258" s="2">
+        <f t="shared" si="12"/>
+        <v>524212.00291828794</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2580</v>
+      </c>
+      <c r="B259" s="2">
+        <f t="shared" si="11"/>
+        <v>75.702519379844958</v>
+      </c>
+      <c r="C259" s="2">
+        <f t="shared" si="12"/>
+        <v>524212.29748062015</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2590</v>
+      </c>
+      <c r="B260" s="2">
+        <f t="shared" si="11"/>
+        <v>75.410231660231659</v>
+      </c>
+      <c r="C260" s="2">
+        <f t="shared" si="12"/>
+        <v>524212.58976833976</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2600</v>
+      </c>
+      <c r="B261" s="2">
+        <f t="shared" si="11"/>
+        <v>75.120192307692307</v>
+      </c>
+      <c r="C261" s="2">
+        <f t="shared" si="12"/>
+        <v>524212.87980769231</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2610</v>
+      </c>
+      <c r="B262" s="2">
+        <f t="shared" si="11"/>
+        <v>74.832375478927204</v>
+      </c>
+      <c r="C262" s="2">
+        <f t="shared" si="12"/>
+        <v>524213.16762452107</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2620</v>
+      </c>
+      <c r="B263" s="2">
+        <f t="shared" si="11"/>
+        <v>74.546755725190835</v>
+      </c>
+      <c r="C263" s="2">
+        <f t="shared" si="12"/>
+        <v>524213.45324427483</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2630</v>
+      </c>
+      <c r="B264" s="2">
+        <f t="shared" si="11"/>
+        <v>74.263307984790885</v>
+      </c>
+      <c r="C264" s="2">
+        <f t="shared" si="12"/>
+        <v>524213.7366920152</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2640</v>
+      </c>
+      <c r="B265" s="2">
+        <f t="shared" si="11"/>
+        <v>73.982007575757578</v>
+      </c>
+      <c r="C265" s="2">
+        <f t="shared" si="12"/>
+        <v>524214.01799242425</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2650</v>
+      </c>
+      <c r="B266" s="2">
+        <f t="shared" si="11"/>
+        <v>73.702830188679243</v>
+      </c>
+      <c r="C266" s="2">
+        <f t="shared" si="12"/>
+        <v>524214.29716981133</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2660</v>
+      </c>
+      <c r="B267" s="2">
+        <f t="shared" si="11"/>
+        <v>73.425751879699249</v>
+      </c>
+      <c r="C267" s="2">
+        <f t="shared" si="12"/>
+        <v>524214.57424812031</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2670</v>
+      </c>
+      <c r="B268" s="2">
+        <f t="shared" si="11"/>
+        <v>73.150749063670403</v>
+      </c>
+      <c r="C268" s="2">
+        <f t="shared" si="12"/>
+        <v>524214.84925093636</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2680</v>
+      </c>
+      <c r="B269" s="2">
+        <f t="shared" si="11"/>
+        <v>72.877798507462686</v>
+      </c>
+      <c r="C269" s="2">
+        <f t="shared" si="12"/>
+        <v>524215.12220149254</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2690</v>
+      </c>
+      <c r="B270" s="2">
+        <f t="shared" si="11"/>
+        <v>72.606877323420079</v>
+      </c>
+      <c r="C270" s="2">
+        <f t="shared" si="12"/>
+        <v>524215.39312267659</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2700</v>
+      </c>
+      <c r="B271" s="2">
+        <f t="shared" si="11"/>
+        <v>72.337962962962962</v>
+      </c>
+      <c r="C271" s="2">
+        <f t="shared" si="12"/>
+        <v>524215.66203703702</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2710</v>
+      </c>
+      <c r="B272" s="2">
+        <f t="shared" si="11"/>
+        <v>72.071033210332104</v>
+      </c>
+      <c r="C272" s="2">
+        <f t="shared" si="12"/>
+        <v>524215.92896678968</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2720</v>
+      </c>
+      <c r="B273" s="2">
+        <f t="shared" si="11"/>
+        <v>71.806066176470594</v>
+      </c>
+      <c r="C273" s="2">
+        <f t="shared" si="12"/>
+        <v>524216.19393382355</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2730</v>
+      </c>
+      <c r="B274" s="2">
+        <f t="shared" si="11"/>
+        <v>71.543040293040292</v>
+      </c>
+      <c r="C274" s="2">
+        <f t="shared" si="12"/>
+        <v>524216.45695970696</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2740</v>
+      </c>
+      <c r="B275" s="2">
+        <f t="shared" si="11"/>
+        <v>71.28193430656934</v>
+      </c>
+      <c r="C275" s="2">
+        <f t="shared" si="12"/>
+        <v>524216.71806569345</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2750</v>
+      </c>
+      <c r="B276" s="2">
+        <f t="shared" ref="B276:B339" si="13">(1/($G$7*$G$2*A276))</f>
+        <v>71.022727272727266</v>
+      </c>
+      <c r="C276" s="2">
+        <f t="shared" ref="C276:C339" si="14">$G$12-B276</f>
+        <v>524216.97727272729</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2760</v>
+      </c>
+      <c r="B277" s="2">
+        <f t="shared" si="13"/>
+        <v>70.76539855072464</v>
+      </c>
+      <c r="C277" s="2">
+        <f t="shared" si="14"/>
+        <v>524217.23460144928</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2770</v>
+      </c>
+      <c r="B278" s="2">
+        <f t="shared" si="13"/>
+        <v>70.509927797833939</v>
+      </c>
+      <c r="C278" s="2">
+        <f t="shared" si="14"/>
+        <v>524217.49007220217</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2780</v>
+      </c>
+      <c r="B279" s="2">
+        <f t="shared" si="13"/>
+        <v>70.256294964028768</v>
+      </c>
+      <c r="C279" s="2">
+        <f t="shared" si="14"/>
+        <v>524217.74370503594</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2790</v>
+      </c>
+      <c r="B280" s="2">
+        <f t="shared" si="13"/>
+        <v>70.004480286738357</v>
+      </c>
+      <c r="C280" s="2">
+        <f t="shared" si="14"/>
+        <v>524217.99551971327</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2800</v>
+      </c>
+      <c r="B281" s="2">
+        <f t="shared" si="13"/>
+        <v>69.754464285714292</v>
+      </c>
+      <c r="C281" s="2">
+        <f t="shared" si="14"/>
+        <v>524218.24553571426</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2810</v>
+      </c>
+      <c r="B282" s="2">
+        <f t="shared" si="13"/>
+        <v>69.506227758007114</v>
+      </c>
+      <c r="C282" s="2">
+        <f t="shared" si="14"/>
+        <v>524218.49377224199</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2820</v>
+      </c>
+      <c r="B283" s="2">
+        <f t="shared" si="13"/>
+        <v>69.259751773049643</v>
+      </c>
+      <c r="C283" s="2">
+        <f t="shared" si="14"/>
+        <v>524218.74024822697</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2830</v>
+      </c>
+      <c r="B284" s="2">
+        <f t="shared" si="13"/>
+        <v>69.015017667844518</v>
+      </c>
+      <c r="C284" s="2">
+        <f t="shared" si="14"/>
+        <v>524218.98498233216</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2840</v>
+      </c>
+      <c r="B285" s="2">
+        <f t="shared" si="13"/>
+        <v>68.77200704225352</v>
+      </c>
+      <c r="C285" s="2">
+        <f t="shared" si="14"/>
+        <v>524219.22799295775</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2850</v>
+      </c>
+      <c r="B286" s="2">
+        <f t="shared" si="13"/>
+        <v>68.530701754385959</v>
+      </c>
+      <c r="C286" s="2">
+        <f t="shared" si="14"/>
+        <v>524219.46929824562</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2860</v>
+      </c>
+      <c r="B287" s="2">
+        <f t="shared" si="13"/>
+        <v>68.29108391608392</v>
+      </c>
+      <c r="C287" s="2">
+        <f t="shared" si="14"/>
+        <v>524219.70891608391</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2870</v>
+      </c>
+      <c r="B288" s="2">
+        <f t="shared" si="13"/>
+        <v>68.053135888501743</v>
+      </c>
+      <c r="C288" s="2">
+        <f t="shared" si="14"/>
+        <v>524219.94686411152</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2880</v>
+      </c>
+      <c r="B289" s="2">
+        <f t="shared" si="13"/>
+        <v>67.816840277777771</v>
+      </c>
+      <c r="C289" s="2">
+        <f t="shared" si="14"/>
+        <v>524220.18315972225</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2890</v>
+      </c>
+      <c r="B290" s="2">
+        <f t="shared" si="13"/>
+        <v>67.582179930795846</v>
+      </c>
+      <c r="C290" s="2">
+        <f t="shared" si="14"/>
+        <v>524220.41782006918</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2900</v>
+      </c>
+      <c r="B291" s="2">
+        <f t="shared" si="13"/>
+        <v>67.349137931034477</v>
+      </c>
+      <c r="C291" s="2">
+        <f t="shared" si="14"/>
+        <v>524220.65086206899</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2910</v>
+      </c>
+      <c r="B292" s="2">
+        <f t="shared" si="13"/>
+        <v>67.11769759450172</v>
+      </c>
+      <c r="C292" s="2">
+        <f t="shared" si="14"/>
+        <v>524220.88230240549</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2920</v>
+      </c>
+      <c r="B293" s="2">
+        <f t="shared" si="13"/>
+        <v>66.887842465753423</v>
+      </c>
+      <c r="C293" s="2">
+        <f t="shared" si="14"/>
+        <v>524221.11215753423</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2930</v>
+      </c>
+      <c r="B294" s="2">
+        <f t="shared" si="13"/>
+        <v>66.659556313993178</v>
+      </c>
+      <c r="C294" s="2">
+        <f t="shared" si="14"/>
+        <v>524221.340443686</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2940</v>
+      </c>
+      <c r="B295" s="2">
+        <f t="shared" si="13"/>
+        <v>66.432823129251702</v>
+      </c>
+      <c r="C295" s="2">
+        <f t="shared" si="14"/>
+        <v>524221.56717687077</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2950</v>
+      </c>
+      <c r="B296" s="2">
+        <f t="shared" si="13"/>
+        <v>66.207627118644069</v>
+      </c>
+      <c r="C296" s="2">
+        <f t="shared" si="14"/>
+        <v>524221.79237288138</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2960</v>
+      </c>
+      <c r="B297" s="2">
+        <f t="shared" si="13"/>
+        <v>65.983952702702695</v>
+      </c>
+      <c r="C297" s="2">
+        <f t="shared" si="14"/>
+        <v>524222.01604729728</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2970</v>
+      </c>
+      <c r="B298" s="2">
+        <f t="shared" si="13"/>
+        <v>65.761784511784512</v>
+      </c>
+      <c r="C298" s="2">
+        <f t="shared" si="14"/>
+        <v>524222.23821548821</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2980</v>
+      </c>
+      <c r="B299" s="2">
+        <f t="shared" si="13"/>
+        <v>65.541107382550337</v>
+      </c>
+      <c r="C299" s="2">
+        <f t="shared" si="14"/>
+        <v>524222.45889261743</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2990</v>
+      </c>
+      <c r="B300" s="2">
+        <f t="shared" si="13"/>
+        <v>65.32190635451505</v>
+      </c>
+      <c r="C300" s="2">
+        <f t="shared" si="14"/>
+        <v>524222.67809364549</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>3000</v>
+      </c>
+      <c r="B301" s="2">
+        <f t="shared" si="13"/>
+        <v>65.104166666666671</v>
+      </c>
+      <c r="C301" s="2">
+        <f t="shared" si="14"/>
+        <v>524222.89583333331</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>3010</v>
+      </c>
+      <c r="B302" s="2">
+        <f t="shared" si="13"/>
+        <v>64.887873754152821</v>
+      </c>
+      <c r="C302" s="2">
+        <f t="shared" si="14"/>
+        <v>524223.11212624586</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>3020</v>
+      </c>
+      <c r="B303" s="2">
+        <f t="shared" si="13"/>
+        <v>64.673013245033104</v>
+      </c>
+      <c r="C303" s="2">
+        <f t="shared" si="14"/>
+        <v>524223.32698675495</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>3030</v>
+      </c>
+      <c r="B304" s="2">
+        <f t="shared" si="13"/>
+        <v>64.459570957095707</v>
+      </c>
+      <c r="C304" s="2">
+        <f t="shared" si="14"/>
+        <v>524223.54042904289</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>3040</v>
+      </c>
+      <c r="B305" s="2">
+        <f t="shared" si="13"/>
+        <v>64.247532894736835</v>
+      </c>
+      <c r="C305" s="2">
+        <f t="shared" si="14"/>
+        <v>524223.75246710528</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>3050</v>
+      </c>
+      <c r="B306" s="2">
+        <f t="shared" si="13"/>
+        <v>64.036885245901644</v>
+      </c>
+      <c r="C306" s="2">
+        <f t="shared" si="14"/>
+        <v>524223.96311475412</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>3060</v>
+      </c>
+      <c r="B307" s="2">
+        <f t="shared" si="13"/>
+        <v>63.82761437908497</v>
+      </c>
+      <c r="C307" s="2">
+        <f t="shared" si="14"/>
+        <v>524224.17238562094</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>3070</v>
+      </c>
+      <c r="B308" s="2">
+        <f t="shared" si="13"/>
+        <v>63.619706840390876</v>
+      </c>
+      <c r="C308" s="2">
+        <f t="shared" si="14"/>
+        <v>524224.38029315963</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>3080</v>
+      </c>
+      <c r="B309" s="2">
+        <f t="shared" si="13"/>
+        <v>63.413149350649341</v>
+      </c>
+      <c r="C309" s="2">
+        <f t="shared" si="14"/>
+        <v>524224.58685064933</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>3090</v>
+      </c>
+      <c r="B310" s="2">
+        <f t="shared" si="13"/>
+        <v>63.207928802589002</v>
+      </c>
+      <c r="C310" s="2">
+        <f t="shared" si="14"/>
+        <v>524224.79207119741</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>3100</v>
+      </c>
+      <c r="B311" s="2">
+        <f t="shared" si="13"/>
+        <v>63.004032258064512</v>
+      </c>
+      <c r="C311" s="2">
+        <f t="shared" si="14"/>
+        <v>524224.99596774194</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>3110</v>
+      </c>
+      <c r="B312" s="2">
+        <f t="shared" si="13"/>
+        <v>62.801446945337609</v>
+      </c>
+      <c r="C312" s="2">
+        <f t="shared" si="14"/>
+        <v>524225.19855305465</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>3120</v>
+      </c>
+      <c r="B313" s="2">
+        <f t="shared" si="13"/>
+        <v>62.600160256410255</v>
+      </c>
+      <c r="C313" s="2">
+        <f t="shared" si="14"/>
+        <v>524225.39983974356</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>3130</v>
+      </c>
+      <c r="B314" s="2">
+        <f t="shared" si="13"/>
+        <v>62.400159744408938</v>
+      </c>
+      <c r="C314" s="2">
+        <f t="shared" si="14"/>
+        <v>524225.59984025557</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>3140</v>
+      </c>
+      <c r="B315" s="2">
+        <f t="shared" si="13"/>
+        <v>62.201433121019114</v>
+      </c>
+      <c r="C315" s="2">
+        <f t="shared" si="14"/>
+        <v>524225.79856687901</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>3150</v>
+      </c>
+      <c r="B316" s="2">
+        <f t="shared" si="13"/>
+        <v>62.003968253968253</v>
+      </c>
+      <c r="C316" s="2">
+        <f t="shared" si="14"/>
+        <v>524225.99603174604</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>3160</v>
+      </c>
+      <c r="B317" s="2">
+        <f t="shared" si="13"/>
+        <v>61.807753164556956</v>
+      </c>
+      <c r="C317" s="2">
+        <f t="shared" si="14"/>
+        <v>524226.19224683545</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>3170</v>
+      </c>
+      <c r="B318" s="2">
+        <f t="shared" si="13"/>
+        <v>61.612776025236599</v>
+      </c>
+      <c r="C318" s="2">
+        <f t="shared" si="14"/>
+        <v>524226.38722397474</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>3180</v>
+      </c>
+      <c r="B319" s="2">
+        <f t="shared" si="13"/>
+        <v>61.419025157232703</v>
+      </c>
+      <c r="C319" s="2">
+        <f t="shared" si="14"/>
+        <v>524226.58097484277</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>3190</v>
+      </c>
+      <c r="B320" s="2">
+        <f t="shared" si="13"/>
+        <v>61.226489028213159</v>
+      </c>
+      <c r="C320" s="2">
+        <f t="shared" si="14"/>
+        <v>524226.77351097181</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>3200</v>
+      </c>
+      <c r="B321" s="2">
+        <f t="shared" si="13"/>
+        <v>61.03515625</v>
+      </c>
+      <c r="C321" s="2">
+        <f t="shared" si="14"/>
+        <v>524226.96484375</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>3210</v>
+      </c>
+      <c r="B322" s="2">
+        <f t="shared" si="13"/>
+        <v>60.845015576323988</v>
+      </c>
+      <c r="C322" s="2">
+        <f t="shared" si="14"/>
+        <v>524227.15498442366</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>3220</v>
+      </c>
+      <c r="B323" s="2">
+        <f t="shared" si="13"/>
+        <v>60.656055900621112</v>
+      </c>
+      <c r="C323" s="2">
+        <f t="shared" si="14"/>
+        <v>524227.34394409938</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>3230</v>
+      </c>
+      <c r="B324" s="2">
+        <f t="shared" si="13"/>
+        <v>60.46826625386997</v>
+      </c>
+      <c r="C324" s="2">
+        <f t="shared" si="14"/>
+        <v>524227.53173374612</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>3240</v>
+      </c>
+      <c r="B325" s="2">
+        <f t="shared" si="13"/>
+        <v>60.281635802469133</v>
+      </c>
+      <c r="C325" s="2">
+        <f t="shared" si="14"/>
+        <v>524227.71836419753</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>3250</v>
+      </c>
+      <c r="B326" s="2">
+        <f t="shared" si="13"/>
+        <v>60.09615384615384</v>
+      </c>
+      <c r="C326" s="2">
+        <f t="shared" si="14"/>
+        <v>524227.90384615387</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>3260</v>
+      </c>
+      <c r="B327" s="2">
+        <f t="shared" si="13"/>
+        <v>59.911809815950924</v>
+      </c>
+      <c r="C327" s="2">
+        <f t="shared" si="14"/>
+        <v>524228.08819018403</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>3270</v>
+      </c>
+      <c r="B328" s="2">
+        <f t="shared" si="13"/>
+        <v>59.728593272171253</v>
+      </c>
+      <c r="C328" s="2">
+        <f t="shared" si="14"/>
+        <v>524228.27140672784</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>3280</v>
+      </c>
+      <c r="B329" s="2">
+        <f t="shared" si="13"/>
+        <v>59.546493902439032</v>
+      </c>
+      <c r="C329" s="2">
+        <f t="shared" si="14"/>
+        <v>524228.45350609755</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>3290</v>
+      </c>
+      <c r="B330" s="2">
+        <f t="shared" si="13"/>
+        <v>59.36550151975684</v>
+      </c>
+      <c r="C330" s="2">
+        <f t="shared" si="14"/>
+        <v>524228.63449848024</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>3300</v>
+      </c>
+      <c r="B331" s="2">
+        <f t="shared" si="13"/>
+        <v>59.185606060606055</v>
+      </c>
+      <c r="C331" s="2">
+        <f t="shared" si="14"/>
+        <v>524228.81439393939</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>3310</v>
+      </c>
+      <c r="B332" s="2">
+        <f t="shared" si="13"/>
+        <v>59.006797583081571</v>
+      </c>
+      <c r="C332" s="2">
+        <f t="shared" si="14"/>
+        <v>524228.99320241692</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>3320</v>
+      </c>
+      <c r="B333" s="2">
+        <f t="shared" si="13"/>
+        <v>58.829066265060241</v>
+      </c>
+      <c r="C333" s="2">
+        <f t="shared" si="14"/>
+        <v>524229.17093373492</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>3330</v>
+      </c>
+      <c r="B334" s="2">
+        <f t="shared" si="13"/>
+        <v>58.652402402402394</v>
+      </c>
+      <c r="C334" s="2">
+        <f t="shared" si="14"/>
+        <v>524229.34759759757</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>3340</v>
+      </c>
+      <c r="B335" s="2">
+        <f t="shared" si="13"/>
+        <v>58.476796407185631</v>
+      </c>
+      <c r="C335" s="2">
+        <f t="shared" si="14"/>
+        <v>524229.52320359281</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>3350</v>
+      </c>
+      <c r="B336" s="2">
+        <f t="shared" si="13"/>
+        <v>58.302238805970148</v>
+      </c>
+      <c r="C336" s="2">
+        <f t="shared" si="14"/>
+        <v>524229.69776119402</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>3360</v>
+      </c>
+      <c r="B337" s="2">
+        <f t="shared" si="13"/>
+        <v>58.128720238095234</v>
+      </c>
+      <c r="C337" s="2">
+        <f t="shared" si="14"/>
+        <v>524229.87127976189</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>3370</v>
+      </c>
+      <c r="B338" s="2">
+        <f t="shared" si="13"/>
+        <v>57.956231454005938</v>
+      </c>
+      <c r="C338" s="2">
+        <f t="shared" si="14"/>
+        <v>524230.04376854602</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>3380</v>
+      </c>
+      <c r="B339" s="2">
+        <f t="shared" si="13"/>
+        <v>57.784763313609467</v>
+      </c>
+      <c r="C339" s="2">
+        <f t="shared" si="14"/>
+        <v>524230.2152366864</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3390</v>
+      </c>
+      <c r="B340" s="2">
+        <f t="shared" ref="B340:B403" si="15">(1/($G$7*$G$2*A340))</f>
+        <v>57.614306784660762</v>
+      </c>
+      <c r="C340" s="2">
+        <f t="shared" ref="C340:C403" si="16">$G$12-B340</f>
+        <v>524230.38569321536</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>3400</v>
+      </c>
+      <c r="B341" s="2">
+        <f t="shared" si="15"/>
+        <v>57.444852941176471</v>
+      </c>
+      <c r="C341" s="2">
+        <f t="shared" si="16"/>
+        <v>524230.5551470588</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>3410</v>
+      </c>
+      <c r="B342" s="2">
+        <f t="shared" si="15"/>
+        <v>57.27639296187683</v>
+      </c>
+      <c r="C342" s="2">
+        <f t="shared" si="16"/>
+        <v>524230.72360703815</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>3420</v>
+      </c>
+      <c r="B343" s="2">
+        <f t="shared" si="15"/>
+        <v>57.108918128654977</v>
+      </c>
+      <c r="C343" s="2">
+        <f t="shared" si="16"/>
+        <v>524230.89108187135</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>3430</v>
+      </c>
+      <c r="B344" s="2">
+        <f t="shared" si="15"/>
+        <v>56.942419825072889</v>
+      </c>
+      <c r="C344" s="2">
+        <f t="shared" si="16"/>
+        <v>524231.05758017494</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>3440</v>
+      </c>
+      <c r="B345" s="2">
+        <f t="shared" si="15"/>
+        <v>56.776889534883715</v>
+      </c>
+      <c r="C345" s="2">
+        <f t="shared" si="16"/>
+        <v>524231.2231104651</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>3450</v>
+      </c>
+      <c r="B346" s="2">
+        <f t="shared" si="15"/>
+        <v>56.612318840579711</v>
+      </c>
+      <c r="C346" s="2">
+        <f t="shared" si="16"/>
+        <v>524231.38768115942</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>3460</v>
+      </c>
+      <c r="B347" s="2">
+        <f t="shared" si="15"/>
+        <v>56.448699421965316</v>
+      </c>
+      <c r="C347" s="2">
+        <f t="shared" si="16"/>
+        <v>524231.55130057805</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>3470</v>
+      </c>
+      <c r="B348" s="2">
+        <f t="shared" si="15"/>
+        <v>56.286023054755042</v>
+      </c>
+      <c r="C348" s="2">
+        <f t="shared" si="16"/>
+        <v>524231.71397694526</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>3480</v>
+      </c>
+      <c r="B349" s="2">
+        <f t="shared" si="15"/>
+        <v>56.124281609195407</v>
+      </c>
+      <c r="C349" s="2">
+        <f t="shared" si="16"/>
+        <v>524231.8757183908</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>3490</v>
+      </c>
+      <c r="B350" s="2">
+        <f t="shared" si="15"/>
+        <v>55.963467048710598</v>
+      </c>
+      <c r="C350" s="2">
+        <f t="shared" si="16"/>
+        <v>524232.03653295129</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>3500</v>
+      </c>
+      <c r="B351" s="2">
+        <f t="shared" si="15"/>
+        <v>55.803571428571423</v>
+      </c>
+      <c r="C351" s="2">
+        <f t="shared" si="16"/>
+        <v>524232.19642857142</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3510</v>
+      </c>
+      <c r="B352" s="2">
+        <f t="shared" si="15"/>
+        <v>55.644586894586894</v>
+      </c>
+      <c r="C352" s="2">
+        <f t="shared" si="16"/>
+        <v>524232.3554131054</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>3520</v>
+      </c>
+      <c r="B353" s="2">
+        <f t="shared" si="15"/>
+        <v>55.48650568181818</v>
+      </c>
+      <c r="C353" s="2">
+        <f t="shared" si="16"/>
+        <v>524232.51349431818</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>3530</v>
+      </c>
+      <c r="B354" s="2">
+        <f t="shared" si="15"/>
+        <v>55.329320113314452</v>
+      </c>
+      <c r="C354" s="2">
+        <f t="shared" si="16"/>
+        <v>524232.67067988671</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>3540</v>
+      </c>
+      <c r="B355" s="2">
+        <f t="shared" si="15"/>
+        <v>55.173022598870055</v>
+      </c>
+      <c r="C355" s="2">
+        <f t="shared" si="16"/>
+        <v>524232.82697740116</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3550</v>
+      </c>
+      <c r="B356" s="2">
+        <f t="shared" si="15"/>
+        <v>55.017605633802816</v>
+      </c>
+      <c r="C356" s="2">
+        <f t="shared" si="16"/>
+        <v>524232.98239436618</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>3560</v>
+      </c>
+      <c r="B357" s="2">
+        <f t="shared" si="15"/>
+        <v>54.863061797752813</v>
+      </c>
+      <c r="C357" s="2">
+        <f t="shared" si="16"/>
+        <v>524233.13693820225</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>3570</v>
+      </c>
+      <c r="B358" s="2">
+        <f t="shared" si="15"/>
+        <v>54.709383753501399</v>
+      </c>
+      <c r="C358" s="2">
+        <f t="shared" si="16"/>
+        <v>524233.29061624652</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>3580</v>
+      </c>
+      <c r="B359" s="2">
+        <f t="shared" si="15"/>
+        <v>54.556564245810051</v>
+      </c>
+      <c r="C359" s="2">
+        <f t="shared" si="16"/>
+        <v>524233.44343575416</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>3590</v>
+      </c>
+      <c r="B360" s="2">
+        <f t="shared" si="15"/>
+        <v>54.404596100278553</v>
+      </c>
+      <c r="C360" s="2">
+        <f t="shared" si="16"/>
+        <v>524233.59540389973</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>3600</v>
+      </c>
+      <c r="B361" s="2">
+        <f t="shared" si="15"/>
+        <v>54.253472222222221</v>
+      </c>
+      <c r="C361" s="2">
+        <f t="shared" si="16"/>
+        <v>524233.74652777775</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3610</v>
+      </c>
+      <c r="B362" s="2">
+        <f t="shared" si="15"/>
+        <v>54.103185595567865</v>
+      </c>
+      <c r="C362" s="2">
+        <f t="shared" si="16"/>
+        <v>524233.8968144044</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3620</v>
+      </c>
+      <c r="B363" s="2">
+        <f t="shared" si="15"/>
+        <v>53.953729281767956</v>
+      </c>
+      <c r="C363" s="2">
+        <f t="shared" si="16"/>
+        <v>524234.04627071822</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3630</v>
+      </c>
+      <c r="B364" s="2">
+        <f t="shared" si="15"/>
+        <v>53.805096418732781</v>
+      </c>
+      <c r="C364" s="2">
+        <f t="shared" si="16"/>
+        <v>524234.19490358129</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>3640</v>
+      </c>
+      <c r="B365" s="2">
+        <f t="shared" si="15"/>
+        <v>53.657280219780212</v>
+      </c>
+      <c r="C365" s="2">
+        <f t="shared" si="16"/>
+        <v>524234.34271978022</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>3650</v>
+      </c>
+      <c r="B366" s="2">
+        <f t="shared" si="15"/>
+        <v>53.510273972602739</v>
+      </c>
+      <c r="C366" s="2">
+        <f t="shared" si="16"/>
+        <v>524234.48972602742</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>3660</v>
+      </c>
+      <c r="B367" s="2">
+        <f t="shared" si="15"/>
+        <v>53.36407103825136</v>
+      </c>
+      <c r="C367" s="2">
+        <f t="shared" si="16"/>
+        <v>524234.63592896174</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>3670</v>
+      </c>
+      <c r="B368" s="2">
+        <f t="shared" si="15"/>
+        <v>53.218664850136243</v>
+      </c>
+      <c r="C368" s="2">
+        <f t="shared" si="16"/>
+        <v>524234.78133514989</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>3680</v>
+      </c>
+      <c r="B369" s="2">
+        <f t="shared" si="15"/>
+        <v>53.074048913043477</v>
+      </c>
+      <c r="C369" s="2">
+        <f t="shared" si="16"/>
+        <v>524234.92595108697</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>3690</v>
+      </c>
+      <c r="B370" s="2">
+        <f t="shared" si="15"/>
+        <v>52.930216802168019</v>
+      </c>
+      <c r="C370" s="2">
+        <f t="shared" si="16"/>
+        <v>524235.06978319783</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>3700</v>
+      </c>
+      <c r="B371" s="2">
+        <f t="shared" si="15"/>
+        <v>52.787162162162161</v>
+      </c>
+      <c r="C371" s="2">
+        <f t="shared" si="16"/>
+        <v>524235.21283783781</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3710</v>
+      </c>
+      <c r="B372" s="2">
+        <f t="shared" si="15"/>
+        <v>52.644878706199464</v>
+      </c>
+      <c r="C372" s="2">
+        <f t="shared" si="16"/>
+        <v>524235.3551212938</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>3720</v>
+      </c>
+      <c r="B373" s="2">
+        <f t="shared" si="15"/>
+        <v>52.50336021505376</v>
+      </c>
+      <c r="C373" s="2">
+        <f t="shared" si="16"/>
+        <v>524235.49663978495</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>3730</v>
+      </c>
+      <c r="B374" s="2">
+        <f t="shared" si="15"/>
+        <v>52.362600536193028</v>
+      </c>
+      <c r="C374" s="2">
+        <f t="shared" si="16"/>
+        <v>524235.6373994638</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>3740</v>
+      </c>
+      <c r="B375" s="2">
+        <f t="shared" si="15"/>
+        <v>52.222593582887697</v>
+      </c>
+      <c r="C375" s="2">
+        <f t="shared" si="16"/>
+        <v>524235.77740641712</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>3750</v>
+      </c>
+      <c r="B376" s="2">
+        <f t="shared" si="15"/>
+        <v>52.083333333333329</v>
+      </c>
+      <c r="C376" s="2">
+        <f t="shared" si="16"/>
+        <v>524235.91666666669</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>3760</v>
+      </c>
+      <c r="B377" s="2">
+        <f t="shared" si="15"/>
+        <v>51.944813829787236</v>
+      </c>
+      <c r="C377" s="2">
+        <f t="shared" si="16"/>
+        <v>524236.05518617021</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>3770</v>
+      </c>
+      <c r="B378" s="2">
+        <f t="shared" si="15"/>
+        <v>51.807029177718832</v>
+      </c>
+      <c r="C378" s="2">
+        <f t="shared" si="16"/>
+        <v>524236.19297082227</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>3780</v>
+      </c>
+      <c r="B379" s="2">
+        <f t="shared" si="15"/>
+        <v>51.669973544973537</v>
+      </c>
+      <c r="C379" s="2">
+        <f t="shared" si="16"/>
+        <v>524236.33002645505</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>3790</v>
+      </c>
+      <c r="B380" s="2">
+        <f t="shared" si="15"/>
+        <v>51.53364116094987</v>
+      </c>
+      <c r="C380" s="2">
+        <f t="shared" si="16"/>
+        <v>524236.46635883907</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>3800</v>
+      </c>
+      <c r="B381" s="2">
+        <f t="shared" si="15"/>
+        <v>51.398026315789473</v>
+      </c>
+      <c r="C381" s="2">
+        <f t="shared" si="16"/>
+        <v>524236.60197368421</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>3810</v>
+      </c>
+      <c r="B382" s="2">
+        <f t="shared" si="15"/>
+        <v>51.263123359580057</v>
+      </c>
+      <c r="C382" s="2">
+        <f t="shared" si="16"/>
+        <v>524236.73687664041</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>3820</v>
+      </c>
+      <c r="B383" s="2">
+        <f t="shared" si="15"/>
+        <v>51.128926701570677</v>
+      </c>
+      <c r="C383" s="2">
+        <f t="shared" si="16"/>
+        <v>524236.87107329845</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>3830</v>
+      </c>
+      <c r="B384" s="2">
+        <f t="shared" si="15"/>
+        <v>50.995430809399473</v>
+      </c>
+      <c r="C384" s="2">
+        <f t="shared" si="16"/>
+        <v>524237.00456919061</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>3840</v>
+      </c>
+      <c r="B385" s="2">
+        <f t="shared" si="15"/>
+        <v>50.862630208333336</v>
+      </c>
+      <c r="C385" s="2">
+        <f t="shared" si="16"/>
+        <v>524237.13736979169</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>3850</v>
+      </c>
+      <c r="B386" s="2">
+        <f t="shared" si="15"/>
+        <v>50.730519480519483</v>
+      </c>
+      <c r="C386" s="2">
+        <f t="shared" si="16"/>
+        <v>524237.26948051946</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>3860</v>
+      </c>
+      <c r="B387" s="2">
+        <f t="shared" si="15"/>
+        <v>50.599093264248701</v>
+      </c>
+      <c r="C387" s="2">
+        <f t="shared" si="16"/>
+        <v>524237.40090673574</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>3870</v>
+      </c>
+      <c r="B388" s="2">
+        <f t="shared" si="15"/>
+        <v>50.468346253229974</v>
+      </c>
+      <c r="C388" s="2">
+        <f t="shared" si="16"/>
+        <v>524237.53165374679</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>3880</v>
+      </c>
+      <c r="B389" s="2">
+        <f t="shared" si="15"/>
+        <v>50.33827319587629</v>
+      </c>
+      <c r="C389" s="2">
+        <f t="shared" si="16"/>
+        <v>524237.6617268041</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>3890</v>
+      </c>
+      <c r="B390" s="2">
+        <f t="shared" si="15"/>
+        <v>50.208868894601537</v>
+      </c>
+      <c r="C390" s="2">
+        <f t="shared" si="16"/>
+        <v>524237.79113110539</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>3900</v>
+      </c>
+      <c r="B391" s="2">
+        <f t="shared" si="15"/>
+        <v>50.080128205128204</v>
+      </c>
+      <c r="C391" s="2">
+        <f t="shared" si="16"/>
+        <v>524237.91987179487</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>3910</v>
+      </c>
+      <c r="B392" s="2">
+        <f t="shared" si="15"/>
+        <v>49.952046035805623</v>
+      </c>
+      <c r="C392" s="2">
+        <f t="shared" si="16"/>
+        <v>524238.04795396421</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>3920</v>
+      </c>
+      <c r="B393" s="2">
+        <f t="shared" si="15"/>
+        <v>49.824617346938773</v>
+      </c>
+      <c r="C393" s="2">
+        <f t="shared" si="16"/>
+        <v>524238.17538265308</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>3930</v>
+      </c>
+      <c r="B394" s="2">
+        <f t="shared" si="15"/>
+        <v>49.697837150127228</v>
+      </c>
+      <c r="C394" s="2">
+        <f t="shared" si="16"/>
+        <v>524238.30216284987</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>3940</v>
+      </c>
+      <c r="B395" s="2">
+        <f t="shared" si="15"/>
+        <v>49.57170050761421</v>
+      </c>
+      <c r="C395" s="2">
+        <f t="shared" si="16"/>
+        <v>524238.4282994924</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>3950</v>
+      </c>
+      <c r="B396" s="2">
+        <f t="shared" si="15"/>
+        <v>49.446202531645575</v>
+      </c>
+      <c r="C396" s="2">
+        <f t="shared" si="16"/>
+        <v>524238.55379746837</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>3960</v>
+      </c>
+      <c r="B397" s="2">
+        <f t="shared" si="15"/>
+        <v>49.321338383838381</v>
+      </c>
+      <c r="C397" s="2">
+        <f t="shared" si="16"/>
+        <v>524238.67866161617</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>3970</v>
+      </c>
+      <c r="B398" s="2">
+        <f t="shared" si="15"/>
+        <v>49.19710327455919</v>
+      </c>
+      <c r="C398" s="2">
+        <f t="shared" si="16"/>
+        <v>524238.80289672542</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>3980</v>
+      </c>
+      <c r="B399" s="2">
+        <f t="shared" si="15"/>
+        <v>49.073492462311563</v>
+      </c>
+      <c r="C399" s="2">
+        <f t="shared" si="16"/>
+        <v>524238.92650753766</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>3990</v>
+      </c>
+      <c r="B400" s="2">
+        <f t="shared" si="15"/>
+        <v>48.950501253132828</v>
+      </c>
+      <c r="C400" s="2">
+        <f t="shared" si="16"/>
+        <v>524239.04949874687</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>4000</v>
+      </c>
+      <c r="B401" s="2">
+        <f t="shared" si="15"/>
+        <v>48.828124999999993</v>
+      </c>
+      <c r="C401" s="2">
+        <f t="shared" si="16"/>
+        <v>524239.171875</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>4010</v>
+      </c>
+      <c r="B402" s="2">
+        <f t="shared" si="15"/>
+        <v>48.706359102244392</v>
+      </c>
+      <c r="C402" s="2">
+        <f t="shared" si="16"/>
+        <v>524239.29364089778</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>4020</v>
+      </c>
+      <c r="B403" s="2">
+        <f t="shared" si="15"/>
+        <v>48.585199004975124</v>
+      </c>
+      <c r="C403" s="2">
+        <f t="shared" si="16"/>
+        <v>524239.41480099503</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>4030</v>
+      </c>
+      <c r="B404" s="2">
+        <f t="shared" ref="B404:B467" si="17">(1/($G$7*$G$2*A404))</f>
+        <v>48.464640198511162</v>
+      </c>
+      <c r="C404" s="2">
+        <f t="shared" ref="C404:C467" si="18">$G$12-B404</f>
+        <v>524239.53535980149</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>4040</v>
+      </c>
+      <c r="B405" s="2">
+        <f t="shared" si="17"/>
+        <v>48.34467821782178</v>
+      </c>
+      <c r="C405" s="2">
+        <f t="shared" si="18"/>
+        <v>524239.65532178216</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>4050</v>
+      </c>
+      <c r="B406" s="2">
+        <f t="shared" si="17"/>
+        <v>48.225308641975303</v>
+      </c>
+      <c r="C406" s="2">
+        <f t="shared" si="18"/>
+        <v>524239.77469135803</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>4060</v>
+      </c>
+      <c r="B407" s="2">
+        <f t="shared" si="17"/>
+        <v>48.106527093596064</v>
+      </c>
+      <c r="C407" s="2">
+        <f t="shared" si="18"/>
+        <v>524239.89347290638</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>4070</v>
+      </c>
+      <c r="B408" s="2">
+        <f t="shared" si="17"/>
+        <v>47.988329238329236</v>
+      </c>
+      <c r="C408" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.01167076168</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>4080</v>
+      </c>
+      <c r="B409" s="2">
+        <f t="shared" si="17"/>
+        <v>47.870710784313722</v>
+      </c>
+      <c r="C409" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.12928921566</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>4090</v>
+      </c>
+      <c r="B410" s="2">
+        <f t="shared" si="17"/>
+        <v>47.753667481662596</v>
+      </c>
+      <c r="C410" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.24633251835</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>4100</v>
+      </c>
+      <c r="B411" s="2">
+        <f t="shared" si="17"/>
+        <v>47.637195121951216</v>
+      </c>
+      <c r="C411" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.36280487804</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>4110</v>
+      </c>
+      <c r="B412" s="2">
+        <f t="shared" si="17"/>
+        <v>47.521289537712889</v>
+      </c>
+      <c r="C412" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.47871046228</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>4120</v>
+      </c>
+      <c r="B413" s="2">
+        <f t="shared" si="17"/>
+        <v>47.40594660194175</v>
+      </c>
+      <c r="C413" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.59405339806</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>4130</v>
+      </c>
+      <c r="B414" s="2">
+        <f t="shared" si="17"/>
+        <v>47.291162227602904</v>
+      </c>
+      <c r="C414" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.70883777237</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>4140</v>
+      </c>
+      <c r="B415" s="2">
+        <f t="shared" si="17"/>
+        <v>47.176932367149753</v>
+      </c>
+      <c r="C415" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.82306763285</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>4150</v>
+      </c>
+      <c r="B416" s="2">
+        <f t="shared" si="17"/>
+        <v>47.063253012048193</v>
+      </c>
+      <c r="C416" s="2">
+        <f t="shared" si="18"/>
+        <v>524240.93674698798</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>4160</v>
+      </c>
+      <c r="B417" s="2">
+        <f t="shared" si="17"/>
+        <v>46.950120192307693</v>
+      </c>
+      <c r="C417" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.04987980769</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>4170</v>
+      </c>
+      <c r="B418" s="2">
+        <f t="shared" si="17"/>
+        <v>46.837529976019184</v>
+      </c>
+      <c r="C418" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.16247002396</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>4180</v>
+      </c>
+      <c r="B419" s="2">
+        <f t="shared" si="17"/>
+        <v>46.725478468899524</v>
+      </c>
+      <c r="C419" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.27452153107</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>4190</v>
+      </c>
+      <c r="B420" s="2">
+        <f t="shared" si="17"/>
+        <v>46.613961813842479</v>
+      </c>
+      <c r="C420" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.38603818615</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>4200</v>
+      </c>
+      <c r="B421" s="2">
+        <f t="shared" si="17"/>
+        <v>46.50297619047619</v>
+      </c>
+      <c r="C421" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.49702380953</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>4210</v>
+      </c>
+      <c r="B422" s="2">
+        <f t="shared" si="17"/>
+        <v>46.392517814726844</v>
+      </c>
+      <c r="C422" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.6074821853</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>4220</v>
+      </c>
+      <c r="B423" s="2">
+        <f t="shared" si="17"/>
+        <v>46.282582938388622</v>
+      </c>
+      <c r="C423" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.71741706162</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>4230</v>
+      </c>
+      <c r="B424" s="2">
+        <f t="shared" si="17"/>
+        <v>46.173167848699762</v>
+      </c>
+      <c r="C424" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.82683215127</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>4240</v>
+      </c>
+      <c r="B425" s="2">
+        <f t="shared" si="17"/>
+        <v>46.064268867924525</v>
+      </c>
+      <c r="C425" s="2">
+        <f t="shared" si="18"/>
+        <v>524241.93573113205</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>4250</v>
+      </c>
+      <c r="B426" s="2">
+        <f t="shared" si="17"/>
+        <v>45.955882352941174</v>
+      </c>
+      <c r="C426" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.04411764705</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>4260</v>
+      </c>
+      <c r="B427" s="2">
+        <f t="shared" si="17"/>
+        <v>45.84800469483568</v>
+      </c>
+      <c r="C427" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.15199530515</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>4270</v>
+      </c>
+      <c r="B428" s="2">
+        <f t="shared" si="17"/>
+        <v>45.74063231850117</v>
+      </c>
+      <c r="C428" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.25936768152</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>4280</v>
+      </c>
+      <c r="B429" s="2">
+        <f t="shared" si="17"/>
+        <v>45.633761682242984</v>
+      </c>
+      <c r="C429" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.36623831774</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>4290</v>
+      </c>
+      <c r="B430" s="2">
+        <f t="shared" si="17"/>
+        <v>45.527389277389275</v>
+      </c>
+      <c r="C430" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.47261072259</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>4300</v>
+      </c>
+      <c r="B431" s="2">
+        <f t="shared" si="17"/>
+        <v>45.421511627906973</v>
+      </c>
+      <c r="C431" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.57848837209</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>4310</v>
+      </c>
+      <c r="B432" s="2">
+        <f t="shared" si="17"/>
+        <v>45.316125290023194</v>
+      </c>
+      <c r="C432" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.68387471</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>4320</v>
+      </c>
+      <c r="B433" s="2">
+        <f t="shared" si="17"/>
+        <v>45.211226851851855</v>
+      </c>
+      <c r="C433" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.78877314815</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>4330</v>
+      </c>
+      <c r="B434" s="2">
+        <f t="shared" si="17"/>
+        <v>45.106812933025402</v>
+      </c>
+      <c r="C434" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.89318706695</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>4340</v>
+      </c>
+      <c r="B435" s="2">
+        <f t="shared" si="17"/>
+        <v>45.002880184331801</v>
+      </c>
+      <c r="C435" s="2">
+        <f t="shared" si="18"/>
+        <v>524242.99711981567</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>4350</v>
+      </c>
+      <c r="B436" s="2">
+        <f t="shared" si="17"/>
+        <v>44.899425287356323</v>
+      </c>
+      <c r="C436" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.10057471262</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>4360</v>
+      </c>
+      <c r="B437" s="2">
+        <f t="shared" si="17"/>
+        <v>44.79644495412844</v>
+      </c>
+      <c r="C437" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.20355504588</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>4370</v>
+      </c>
+      <c r="B438" s="2">
+        <f t="shared" si="17"/>
+        <v>44.693935926773456</v>
+      </c>
+      <c r="C438" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.30606407323</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>4380</v>
+      </c>
+      <c r="B439" s="2">
+        <f t="shared" si="17"/>
+        <v>44.591894977168948</v>
+      </c>
+      <c r="C439" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.40810502286</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>4390</v>
+      </c>
+      <c r="B440" s="2">
+        <f t="shared" si="17"/>
+        <v>44.490318906605921</v>
+      </c>
+      <c r="C440" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.50968109339</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>4400</v>
+      </c>
+      <c r="B441" s="2">
+        <f t="shared" si="17"/>
+        <v>44.389204545454547</v>
+      </c>
+      <c r="C441" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.61079545453</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>4410</v>
+      </c>
+      <c r="B442" s="2">
+        <f t="shared" si="17"/>
+        <v>44.288548752834465</v>
+      </c>
+      <c r="C442" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.71145124716</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>4420</v>
+      </c>
+      <c r="B443" s="2">
+        <f t="shared" si="17"/>
+        <v>44.188348416289593</v>
+      </c>
+      <c r="C443" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.8116515837</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>4430</v>
+      </c>
+      <c r="B444" s="2">
+        <f t="shared" si="17"/>
+        <v>44.088600451467272</v>
+      </c>
+      <c r="C444" s="2">
+        <f t="shared" si="18"/>
+        <v>524243.91139954852</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>4440</v>
+      </c>
+      <c r="B445" s="2">
+        <f t="shared" si="17"/>
+        <v>43.989301801801801</v>
+      </c>
+      <c r="C445" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.01069819822</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>4450</v>
+      </c>
+      <c r="B446" s="2">
+        <f t="shared" si="17"/>
+        <v>43.890449438202246</v>
+      </c>
+      <c r="C446" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.10955056181</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>4460</v>
+      </c>
+      <c r="B447" s="2">
+        <f t="shared" si="17"/>
+        <v>43.792040358744394</v>
+      </c>
+      <c r="C447" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.20795964124</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>4470</v>
+      </c>
+      <c r="B448" s="2">
+        <f t="shared" si="17"/>
+        <v>43.694071588366889</v>
+      </c>
+      <c r="C448" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.30592841166</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>4480</v>
+      </c>
+      <c r="B449" s="2">
+        <f t="shared" si="17"/>
+        <v>43.596540178571431</v>
+      </c>
+      <c r="C449" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.40345982142</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>4490</v>
+      </c>
+      <c r="B450" s="2">
+        <f t="shared" si="17"/>
+        <v>43.499443207126951</v>
+      </c>
+      <c r="C450" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.50055679289</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>4500</v>
+      </c>
+      <c r="B451" s="2">
+        <f t="shared" si="17"/>
+        <v>43.402777777777779</v>
+      </c>
+      <c r="C451" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.59722222225</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>4510</v>
+      </c>
+      <c r="B452" s="2">
+        <f t="shared" si="17"/>
+        <v>43.306541019955652</v>
+      </c>
+      <c r="C452" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.69345898007</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>4520</v>
+      </c>
+      <c r="B453" s="2">
+        <f t="shared" si="17"/>
+        <v>43.210730088495573</v>
+      </c>
+      <c r="C453" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.78926991153</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>4530</v>
+      </c>
+      <c r="B454" s="2">
+        <f t="shared" si="17"/>
+        <v>43.115342163355407</v>
+      </c>
+      <c r="C454" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.88465783664</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>4540</v>
+      </c>
+      <c r="B455" s="2">
+        <f t="shared" si="17"/>
+        <v>43.020374449339208</v>
+      </c>
+      <c r="C455" s="2">
+        <f t="shared" si="18"/>
+        <v>524244.97962555068</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>4550</v>
+      </c>
+      <c r="B456" s="2">
+        <f t="shared" si="17"/>
+        <v>42.925824175824175</v>
+      </c>
+      <c r="C456" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.07417582418</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>4560</v>
+      </c>
+      <c r="B457" s="2">
+        <f t="shared" si="17"/>
+        <v>42.831688596491226</v>
+      </c>
+      <c r="C457" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.16831140348</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>4570</v>
+      </c>
+      <c r="B458" s="2">
+        <f t="shared" si="17"/>
+        <v>42.73796498905908</v>
+      </c>
+      <c r="C458" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.26203501096</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>4580</v>
+      </c>
+      <c r="B459" s="2">
+        <f t="shared" si="17"/>
+        <v>42.644650655021834</v>
+      </c>
+      <c r="C459" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.35534934496</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>4590</v>
+      </c>
+      <c r="B460" s="2">
+        <f t="shared" si="17"/>
+        <v>42.55174291938998</v>
+      </c>
+      <c r="C460" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.44825708063</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>4600</v>
+      </c>
+      <c r="B461" s="2">
+        <f t="shared" si="17"/>
+        <v>42.459239130434781</v>
+      </c>
+      <c r="C461" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.54076086957</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>4610</v>
+      </c>
+      <c r="B462" s="2">
+        <f t="shared" si="17"/>
+        <v>42.367136659436007</v>
+      </c>
+      <c r="C462" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.63286334055</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>4620</v>
+      </c>
+      <c r="B463" s="2">
+        <f t="shared" si="17"/>
+        <v>42.275432900432904</v>
+      </c>
+      <c r="C463" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.72456709959</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>4630</v>
+      </c>
+      <c r="B464" s="2">
+        <f t="shared" si="17"/>
+        <v>42.184125269978402</v>
+      </c>
+      <c r="C464" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.81587473</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>4640</v>
+      </c>
+      <c r="B465" s="2">
+        <f t="shared" si="17"/>
+        <v>42.093211206896548</v>
+      </c>
+      <c r="C465" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.9067887931</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>4650</v>
+      </c>
+      <c r="B466" s="2">
+        <f t="shared" si="17"/>
+        <v>42.002688172043015</v>
+      </c>
+      <c r="C466" s="2">
+        <f t="shared" si="18"/>
+        <v>524245.99731182796</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>4660</v>
+      </c>
+      <c r="B467" s="2">
+        <f t="shared" si="17"/>
+        <v>41.912553648068666</v>
+      </c>
+      <c r="C467" s="2">
+        <f t="shared" si="18"/>
+        <v>524246.08744635194</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>4670</v>
+      </c>
+      <c r="B468" s="2">
+        <f t="shared" ref="B468:B517" si="19">(1/($G$7*$G$2*A468))</f>
+        <v>41.822805139186293</v>
+      </c>
+      <c r="C468" s="2">
+        <f t="shared" ref="C468:C517" si="20">$G$12-B468</f>
+        <v>524246.17719486082</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>4680</v>
+      </c>
+      <c r="B469" s="2">
+        <f t="shared" si="19"/>
+        <v>41.73344017094017</v>
+      </c>
+      <c r="C469" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.26655982906</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>4690</v>
+      </c>
+      <c r="B470" s="2">
+        <f t="shared" si="19"/>
+        <v>41.644456289978677</v>
+      </c>
+      <c r="C470" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.35554371</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>4700</v>
+      </c>
+      <c r="B471" s="2">
+        <f t="shared" si="19"/>
+        <v>41.555851063829785</v>
+      </c>
+      <c r="C471" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.44414893619</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>4710</v>
+      </c>
+      <c r="B472" s="2">
+        <f t="shared" si="19"/>
+        <v>41.467622080679405</v>
+      </c>
+      <c r="C472" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.5323779193</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>4720</v>
+      </c>
+      <c r="B473" s="2">
+        <f t="shared" si="19"/>
+        <v>41.37976694915254</v>
+      </c>
+      <c r="C473" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.62023305084</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>4730</v>
+      </c>
+      <c r="B474" s="2">
+        <f t="shared" si="19"/>
+        <v>41.292283298097253</v>
+      </c>
+      <c r="C474" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.7077167019</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>4740</v>
+      </c>
+      <c r="B475" s="2">
+        <f t="shared" si="19"/>
+        <v>41.205168776371309</v>
+      </c>
+      <c r="C475" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.79483122361</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>4750</v>
+      </c>
+      <c r="B476" s="2">
+        <f t="shared" si="19"/>
+        <v>41.118421052631575</v>
+      </c>
+      <c r="C476" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.88157894736</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>4760</v>
+      </c>
+      <c r="B477" s="2">
+        <f t="shared" si="19"/>
+        <v>41.032037815126053</v>
+      </c>
+      <c r="C477" s="2">
+        <f t="shared" si="20"/>
+        <v>524246.96796218486</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>4770</v>
+      </c>
+      <c r="B478" s="2">
+        <f t="shared" si="19"/>
+        <v>40.946016771488466</v>
+      </c>
+      <c r="C478" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.05398322851</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>4780</v>
+      </c>
+      <c r="B479" s="2">
+        <f t="shared" si="19"/>
+        <v>40.86035564853556</v>
+      </c>
+      <c r="C479" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.13964435144</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>4790</v>
+      </c>
+      <c r="B480" s="2">
+        <f t="shared" si="19"/>
+        <v>40.775052192066809</v>
+      </c>
+      <c r="C480" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.22494780796</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>4800</v>
+      </c>
+      <c r="B481" s="2">
+        <f t="shared" si="19"/>
+        <v>40.690104166666664</v>
+      </c>
+      <c r="C481" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.30989583331</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>4810</v>
+      </c>
+      <c r="B482" s="2">
+        <f t="shared" si="19"/>
+        <v>40.605509355509355</v>
+      </c>
+      <c r="C482" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.39449064451</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>4820</v>
+      </c>
+      <c r="B483" s="2">
+        <f t="shared" si="19"/>
+        <v>40.521265560165979</v>
+      </c>
+      <c r="C483" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.47873443982</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>4830</v>
+      </c>
+      <c r="B484" s="2">
+        <f t="shared" si="19"/>
+        <v>40.437370600414077</v>
+      </c>
+      <c r="C484" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.56262939959</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>4840</v>
+      </c>
+      <c r="B485" s="2">
+        <f t="shared" si="19"/>
+        <v>40.35382231404958</v>
+      </c>
+      <c r="C485" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.64617768594</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>4850</v>
+      </c>
+      <c r="B486" s="2">
+        <f t="shared" si="19"/>
+        <v>40.270618556701031</v>
+      </c>
+      <c r="C486" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.72938144329</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>4860</v>
+      </c>
+      <c r="B487" s="2">
+        <f t="shared" si="19"/>
+        <v>40.187757201646086</v>
+      </c>
+      <c r="C487" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.81224279833</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>4870</v>
+      </c>
+      <c r="B488" s="2">
+        <f t="shared" si="19"/>
+        <v>40.105236139630392</v>
+      </c>
+      <c r="C488" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.89476386039</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>4880</v>
+      </c>
+      <c r="B489" s="2">
+        <f t="shared" si="19"/>
+        <v>40.023053278688522</v>
+      </c>
+      <c r="C489" s="2">
+        <f t="shared" si="20"/>
+        <v>524247.97694672132</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>4890</v>
+      </c>
+      <c r="B490" s="2">
+        <f t="shared" si="19"/>
+        <v>39.941206543967276</v>
+      </c>
+      <c r="C490" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.05879345606</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>4900</v>
+      </c>
+      <c r="B491" s="2">
+        <f t="shared" si="19"/>
+        <v>39.859693877551024</v>
+      </c>
+      <c r="C491" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.14030612243</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>4910</v>
+      </c>
+      <c r="B492" s="2">
+        <f t="shared" si="19"/>
+        <v>39.778513238289207</v>
+      </c>
+      <c r="C492" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.2214867617</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>4920</v>
+      </c>
+      <c r="B493" s="2">
+        <f t="shared" si="19"/>
+        <v>39.697662601626014</v>
+      </c>
+      <c r="C493" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.30233739835</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>4930</v>
+      </c>
+      <c r="B494" s="2">
+        <f t="shared" si="19"/>
+        <v>39.617139959432052</v>
+      </c>
+      <c r="C494" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.38286004058</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>4940</v>
+      </c>
+      <c r="B495" s="2">
+        <f t="shared" si="19"/>
+        <v>39.536943319838059</v>
+      </c>
+      <c r="C495" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.46305668016</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>4950</v>
+      </c>
+      <c r="B496" s="2">
+        <f t="shared" si="19"/>
+        <v>39.457070707070706</v>
+      </c>
+      <c r="C496" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.54292929295</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>4960</v>
+      </c>
+      <c r="B497" s="2">
+        <f t="shared" si="19"/>
+        <v>39.37752016129032</v>
+      </c>
+      <c r="C497" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.62247983873</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>4970</v>
+      </c>
+      <c r="B498" s="2">
+        <f t="shared" si="19"/>
+        <v>39.298289738430583</v>
+      </c>
+      <c r="C498" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.70171026158</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>4980</v>
+      </c>
+      <c r="B499" s="2">
+        <f t="shared" si="19"/>
+        <v>39.219377510040154</v>
+      </c>
+      <c r="C499" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.78062248998</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>4990</v>
+      </c>
+      <c r="B500" s="2">
+        <f t="shared" si="19"/>
+        <v>39.140781563126254</v>
+      </c>
+      <c r="C500" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.85921843688</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>5000</v>
+      </c>
+      <c r="B501" s="2">
+        <f t="shared" si="19"/>
+        <v>39.0625</v>
+      </c>
+      <c r="C501" s="2">
+        <f t="shared" si="20"/>
+        <v>524248.9375</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>5010</v>
+      </c>
+      <c r="B502" s="2">
+        <f t="shared" si="19"/>
+        <v>38.984530938123754</v>
+      </c>
+      <c r="C502" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.01546906185</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>5020</v>
+      </c>
+      <c r="B503" s="2">
+        <f t="shared" si="19"/>
+        <v>38.906872509960159</v>
+      </c>
+      <c r="C503" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.09312749002</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>5030</v>
+      </c>
+      <c r="B504" s="2">
+        <f t="shared" si="19"/>
+        <v>38.829522862823062</v>
+      </c>
+      <c r="C504" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.1704771372</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>5040</v>
+      </c>
+      <c r="B505" s="2">
+        <f t="shared" si="19"/>
+        <v>38.752480158730158</v>
+      </c>
+      <c r="C505" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.24751984124</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>5050</v>
+      </c>
+      <c r="B506" s="2">
+        <f t="shared" si="19"/>
+        <v>38.675742574257427</v>
+      </c>
+      <c r="C506" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.32425742573</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>5060</v>
+      </c>
+      <c r="B507" s="2">
+        <f t="shared" si="19"/>
+        <v>38.599308300395258</v>
+      </c>
+      <c r="C507" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.40069169959</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>5070</v>
+      </c>
+      <c r="B508" s="2">
+        <f t="shared" si="19"/>
+        <v>38.523175542406314</v>
+      </c>
+      <c r="C508" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.47682445758</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>5080</v>
+      </c>
+      <c r="B509" s="2">
+        <f t="shared" si="19"/>
+        <v>38.447342519685037</v>
+      </c>
+      <c r="C509" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.55265748029</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>5090</v>
+      </c>
+      <c r="B510" s="2">
+        <f t="shared" si="19"/>
+        <v>38.371807465618858</v>
+      </c>
+      <c r="C510" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.62819253438</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>5100</v>
+      </c>
+      <c r="B511" s="2">
+        <f t="shared" si="19"/>
+        <v>38.296568627450981</v>
+      </c>
+      <c r="C511" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.70343137253</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>5110</v>
+      </c>
+      <c r="B512" s="2">
+        <f t="shared" si="19"/>
+        <v>38.221624266144815</v>
+      </c>
+      <c r="C512" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.77837573388</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>5120</v>
+      </c>
+      <c r="B513" s="2">
+        <f t="shared" si="19"/>
+        <v>38.14697265625</v>
+      </c>
+      <c r="C513" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.85302734375</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>5130</v>
+      </c>
+      <c r="B514" s="2">
+        <f t="shared" si="19"/>
+        <v>38.072612085769983</v>
+      </c>
+      <c r="C514" s="2">
+        <f t="shared" si="20"/>
+        <v>524249.92738791421</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>5140</v>
+      </c>
+      <c r="B515" s="2">
+        <f t="shared" si="19"/>
+        <v>37.998540856031127</v>
+      </c>
+      <c r="C515" s="2">
+        <f t="shared" si="20"/>
+        <v>524250.001459144</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>5150</v>
+      </c>
+      <c r="B516" s="2">
+        <f t="shared" si="19"/>
+        <v>37.924757281553397</v>
+      </c>
+      <c r="C516" s="2">
+        <f t="shared" si="20"/>
+        <v>524250.07524271845</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>5160</v>
+      </c>
+      <c r="B517" s="2">
+        <f t="shared" si="19"/>
+        <v>37.851259689922479</v>
+      </c>
+      <c r="C517" s="2">
+        <f t="shared" si="20"/>
+        <v>524250.14874031011</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>